--- a/example_td.xlsx
+++ b/example_td.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-boilerplate-main\automation-boilerplate-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EddieKarlsson\Project\github\automation-boilerplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14A0CE-DD84-4EED-9323-64814B1CBD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FE5945-FC37-4676-AF08-260A8BC47FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -42,8 +42,6 @@
     <definedName name="_Toc519497422" localSheetId="0">Overview!$E$4</definedName>
     <definedName name="Activity">[1]Data!$G$2:$G$23</definedName>
     <definedName name="Akt">[1]Data!$B$2:$B$17</definedName>
-    <definedName name="projno17">[2]Data!$A$2:$A$188</definedName>
-    <definedName name="projnr">[1]Data!$A$2:$A$140</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$3:$D$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">AI!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">Alarm!$3:$3</definedName>
@@ -54,6 +52,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="7">PID!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">Sum!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Valve!$3:$3</definedName>
+    <definedName name="projno17">[2]Data!$A$2:$A$188</definedName>
+    <definedName name="projnr">[1]Data!$A$2:$A$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4494,7 +4494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4797,15 +4797,15 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="3" customWidth="1"/>
-    <col min="11" max="1024" width="9.140625" style="3"/>
+    <col min="1" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="3" customWidth="1"/>
+    <col min="11" max="1024" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" ht="32.25" customHeight="1">
@@ -4868,7 +4868,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="4" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
@@ -4938,7 +4938,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="6" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="7" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
@@ -4990,7 +4990,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="11" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
@@ -5094,28 +5094,28 @@
       <c r="I11" s="23"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" ht="25.15" customHeight="1">
+    <row r="12" spans="1:10" ht="25.2" customHeight="1">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="25.15" customHeight="1">
+    <row r="13" spans="1:10" ht="25.2" customHeight="1">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="25.15" customHeight="1">
+    <row r="14" spans="1:10" ht="25.2" customHeight="1">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="25.15" customHeight="1">
+    <row r="15" spans="1:10" ht="25.2" customHeight="1">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="25.15" customHeight="1">
+    <row r="16" spans="1:10" ht="25.2" customHeight="1">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="25.15" customHeight="1">
+    <row r="17" spans="1:10" ht="25.2" customHeight="1">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="25.15" customHeight="1">
+    <row r="18" spans="1:10" ht="25.2" customHeight="1">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="25.15" customHeight="1">
+    <row r="19" spans="1:10" ht="25.2" customHeight="1">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5146,7 +5146,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
     </row>
-    <row r="22" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="22" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
     </row>
-    <row r="23" spans="1:10" s="18" customFormat="1" ht="25.15" customHeight="1">
+    <row r="23" spans="1:10" s="18" customFormat="1" ht="25.2" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -5313,26 +5313,26 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="26"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="26"/>
     <col min="18" max="18" width="12" style="26" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="26"/>
-    <col min="20" max="20" width="21.7109375" style="26" customWidth="1"/>
-    <col min="21" max="1024" width="9.140625" style="26"/>
+    <col min="19" max="19" width="9.109375" style="26"/>
+    <col min="20" max="20" width="21.6640625" style="26" customWidth="1"/>
+    <col min="21" max="1024" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -5349,7 +5349,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1">
+    <row r="2" spans="1:15" ht="19.95" customHeight="1">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -10624,33 +10624,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AME299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="26"/>
-    <col min="19" max="19" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="1016" width="9.140625" style="26"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="26"/>
+    <col min="19" max="19" width="11.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="1016" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1019">
@@ -10729,7 +10729,7 @@
       <c r="P2" s="51"/>
       <c r="Q2" s="51"/>
     </row>
-    <row r="3" spans="1:1019" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1019" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="AMD3"/>
       <c r="AME3"/>
     </row>
-    <row r="4" spans="1:1019" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1019" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="32"/>
       <c r="B4" s="58">
         <f>COUNTA(B6:B299)</f>
@@ -10835,7 +10835,7 @@
       <c r="AMD4"/>
       <c r="AME4"/>
     </row>
-    <row r="5" spans="1:1019" ht="15.75" thickBot="1">
+    <row r="5" spans="1:1019" ht="15" thickBot="1">
       <c r="A5" s="36"/>
       <c r="B5" s="58"/>
       <c r="C5" s="36"/>
@@ -16977,26 +16977,26 @@
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="26"/>
-    <col min="18" max="18" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="1017" width="9.140625" style="26"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="26"/>
+    <col min="18" max="18" width="11.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="1017" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1018">
@@ -22749,23 +22749,23 @@
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="26"/>
-    <col min="18" max="18" width="11.85546875" style="26" customWidth="1"/>
-    <col min="19" max="1017" width="9.140625" style="26"/>
+    <col min="17" max="17" width="9.109375" style="26"/>
+    <col min="18" max="18" width="11.88671875" style="26" customWidth="1"/>
+    <col min="19" max="1017" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -28633,25 +28633,25 @@
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="26"/>
-    <col min="18" max="18" width="13.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="1020" width="9.140625" style="26"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="26"/>
+    <col min="18" max="18" width="13.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="1020" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -28726,7 +28726,7 @@
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
     </row>
-    <row r="3" spans="1:18" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -28777,7 +28777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="32"/>
       <c r="B4" s="58">
         <f>COUNTA(B6:B300)</f>
@@ -28819,7 +28819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+    <row r="5" spans="1:18" ht="15" thickBot="1">
       <c r="A5" s="36"/>
       <c r="B5" s="58"/>
       <c r="C5" s="36"/>
@@ -34305,29 +34305,29 @@
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="26"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="26"/>
     <col min="18" max="18" width="12" style="26" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="26"/>
-    <col min="20" max="20" width="21.7109375" style="26" customWidth="1"/>
-    <col min="21" max="1022" width="9.140625" style="26"/>
+    <col min="19" max="19" width="9.109375" style="26"/>
+    <col min="20" max="20" width="21.6640625" style="26" customWidth="1"/>
+    <col min="21" max="1022" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023">
@@ -34408,7 +34408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1023" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -34459,7 +34459,7 @@
       </c>
       <c r="AMI3"/>
     </row>
-    <row r="4" spans="1:1023" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1023" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="32"/>
       <c r="B4" s="58">
         <f>COUNTA(B6:B300)</f>
@@ -34499,7 +34499,7 @@
       <c r="P4" s="34"/>
       <c r="AMI4"/>
     </row>
-    <row r="5" spans="1:1023" ht="15.75" thickBot="1">
+    <row r="5" spans="1:1023" ht="15" thickBot="1">
       <c r="A5" s="36"/>
       <c r="B5" s="58"/>
       <c r="C5" s="36"/>
@@ -40424,29 +40424,29 @@
       <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="26"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="26"/>
     <col min="19" max="19" width="12" style="26" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="26"/>
-    <col min="21" max="21" width="21.7109375" style="26" customWidth="1"/>
-    <col min="22" max="1025" width="9.140625" style="26"/>
+    <col min="20" max="20" width="9.109375" style="26"/>
+    <col min="21" max="21" width="21.6640625" style="26" customWidth="1"/>
+    <col min="22" max="1025" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -46271,30 +46271,30 @@
       <selection pane="bottomLeft" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.44140625" customWidth="1"/>
     <col min="21" max="21" width="12" style="26" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="26"/>
-    <col min="23" max="23" width="21.7109375" style="26" customWidth="1"/>
-    <col min="24" max="1026" width="9.140625" style="26"/>
+    <col min="22" max="22" width="9.109375" style="26"/>
+    <col min="23" max="23" width="21.6640625" style="26" customWidth="1"/>
+    <col min="24" max="1026" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -46391,7 +46391,7 @@
       <c r="S2" s="52"/>
       <c r="T2" s="52"/>
     </row>
-    <row r="3" spans="1:20" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
@@ -46449,7 +46449,7 @@
       <c r="S3" s="57"/>
       <c r="T3" s="57"/>
     </row>
-    <row r="4" spans="1:20" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="32"/>
       <c r="B4" s="58">
         <f>COUNTA(B6:B300)</f>
@@ -46495,7 +46495,7 @@
       <c r="S4" s="33"/>
       <c r="T4" s="34"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="36"/>
       <c r="B5" s="58"/>
       <c r="C5" s="36"/>
@@ -53234,29 +53234,29 @@
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="26"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="26"/>
     <col min="19" max="19" width="12" style="26" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="26"/>
-    <col min="21" max="21" width="21.7109375" style="26" customWidth="1"/>
-    <col min="22" max="1025" width="9.140625" style="26"/>
+    <col min="20" max="20" width="9.109375" style="26"/>
+    <col min="21" max="21" width="21.6640625" style="26" customWidth="1"/>
+    <col min="22" max="1025" width="9.109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -53337,7 +53337,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="49" t="s">
         <v>24</v>
       </c>
@@ -53387,7 +53387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="31" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" s="31" customFormat="1" ht="15" thickBot="1">
       <c r="A4" s="32"/>
       <c r="B4" s="58">
         <f>COUNTA(B6:B300)</f>
@@ -53426,7 +53426,7 @@
       <c r="O4" s="33"/>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15" thickBot="1">
       <c r="A5" s="36"/>
       <c r="B5" s="58"/>
       <c r="C5" s="36"/>

--- a/example_td.xlsx
+++ b/example_td.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EddieKarlsson\Documents\MC Doc\TD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Generator\automation-boilerplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB46E5B1-D031-44AD-B452-2974FB1A0026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B1306-1A64-4C1F-A790-7EAAA2F83488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="395">
   <si>
     <t>Sheet</t>
   </si>
@@ -1420,6 +1420,99 @@
 • Cleanup, remove unneccessary data, improve look &amp; feel
 • Utilize name manager in excel to decrease coupling between sheets
 • Update Configurations sheet, use named tables instead of hardcoded reference</t>
+  </si>
+  <si>
+    <t>ASI Master</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>16A</t>
+  </si>
+  <si>
+    <t>17A</t>
+  </si>
+  <si>
+    <t>18A</t>
+  </si>
+  <si>
+    <t>19A</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>21A</t>
+  </si>
+  <si>
+    <t>22A</t>
+  </si>
+  <si>
+    <t>23A</t>
+  </si>
+  <si>
+    <t>24A</t>
+  </si>
+  <si>
+    <t>ASI Addr</t>
+  </si>
+  <si>
+    <t>AS100</t>
+  </si>
+  <si>
+    <t>AS200</t>
+  </si>
+  <si>
+    <t>AS300</t>
+  </si>
+  <si>
+    <t>AS400</t>
+  </si>
+  <si>
+    <t>AS500</t>
   </si>
 </sst>
 </file>
@@ -5779,7 +5872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6078,7 +6171,7 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:AMC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -11925,9 +12018,9 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:ALI293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:C26"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12020,6 +12113,12 @@
       <c r="L3" s="45" t="s">
         <v>212</v>
       </c>
+      <c r="M3" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>364</v>
+      </c>
       <c r="ALG3"/>
       <c r="ALH3"/>
       <c r="ALI3"/>
@@ -12114,6 +12213,12 @@
         <f>IF(ISBLANK(F6),"",VLOOKUP(F6,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M6" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="7" spans="1:997">
       <c r="A7" s="35"/>
@@ -12141,6 +12246,12 @@
         <f>IF(ISBLANK(F7),"",VLOOKUP(F7,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M7" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="8" spans="1:997">
       <c r="A8" s="35"/>
@@ -12168,6 +12279,12 @@
         <f>IF(ISBLANK(F8),"",VLOOKUP(F8,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M8" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="9" spans="1:997">
       <c r="A9" s="35"/>
@@ -12195,6 +12312,12 @@
         <f>IF(ISBLANK(F9),"",VLOOKUP(F9,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M9" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="10" spans="1:997">
       <c r="A10" s="35"/>
@@ -12222,6 +12345,12 @@
         <f>IF(ISBLANK(F10),"",VLOOKUP(F10,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M10" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="11" spans="1:997">
       <c r="A11" s="35"/>
@@ -12249,6 +12378,12 @@
         <f>IF(ISBLANK(F11),"",VLOOKUP(F11,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M11" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="12" spans="1:997">
       <c r="A12" s="35"/>
@@ -12276,6 +12411,12 @@
         <f>IF(ISBLANK(F12),"",VLOOKUP(F12,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
+      <c r="M12" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="13" spans="1:997">
       <c r="A13" s="35"/>
@@ -12303,6 +12444,12 @@
         <f>IF(ISBLANK(F13),"",VLOOKUP(F13,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
+      <c r="M13" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="14" spans="1:997">
       <c r="A14" s="35"/>
@@ -12330,6 +12477,12 @@
         <f>IF(ISBLANK(F14),"",VLOOKUP(F14,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M14" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="15" spans="1:997">
       <c r="A15" s="35"/>
@@ -12357,6 +12510,12 @@
         <f>IF(ISBLANK(F15),"",VLOOKUP(F15,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
+      <c r="M15" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="16" spans="1:997">
       <c r="A16" s="35"/>
@@ -12384,8 +12543,14 @@
         <f>IF(ISBLANK(F16),"",VLOOKUP(F16,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="35"/>
       <c r="B17" s="37" t="s">
         <v>31</v>
@@ -12411,8 +12576,14 @@
         <f>IF(ISBLANK(F17),"",VLOOKUP(F17,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="35"/>
       <c r="B18" s="37" t="s">
         <v>32</v>
@@ -12438,8 +12609,14 @@
         <f>IF(ISBLANK(F18),"",VLOOKUP(F18,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="35"/>
       <c r="B19" s="37" t="s">
         <v>33</v>
@@ -12465,8 +12642,14 @@
         <f>IF(ISBLANK(F19),"",VLOOKUP(F19,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="35"/>
       <c r="B20" s="37" t="s">
         <v>87</v>
@@ -12492,8 +12675,14 @@
         <f>IF(ISBLANK(F20),"",VLOOKUP(F20,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="35"/>
       <c r="B21" s="37" t="s">
         <v>88</v>
@@ -12519,8 +12708,14 @@
         <f>IF(ISBLANK(F21),"",VLOOKUP(F21,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="35"/>
       <c r="B22" s="37" t="s">
         <v>89</v>
@@ -12546,8 +12741,14 @@
         <f>IF(ISBLANK(F22),"",VLOOKUP(F22,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="35"/>
       <c r="B23" s="37" t="s">
         <v>90</v>
@@ -12573,8 +12774,14 @@
         <f>IF(ISBLANK(F23),"",VLOOKUP(F23,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="35"/>
       <c r="B24" s="37" t="s">
         <v>91</v>
@@ -12600,8 +12807,14 @@
         <f>IF(ISBLANK(F24),"",VLOOKUP(F24,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="35"/>
       <c r="B25" s="37" t="s">
         <v>92</v>
@@ -12627,8 +12840,14 @@
         <f>IF(ISBLANK(F25),"",VLOOKUP(F25,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="35"/>
       <c r="B26" s="37" t="s">
         <v>93</v>
@@ -12654,8 +12873,14 @@
         <f>IF(ISBLANK(F26),"",VLOOKUP(F26,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="35"/>
       <c r="B27" s="37" t="s">
         <v>160</v>
@@ -12681,8 +12906,14 @@
         <f>IF(ISBLANK(F27),"",VLOOKUP(F27,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="35"/>
       <c r="B28" s="37" t="s">
         <v>161</v>
@@ -12708,8 +12939,14 @@
         <f>IF(ISBLANK(F28),"",VLOOKUP(F28,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="35"/>
       <c r="B29" s="37" t="s">
         <v>162</v>
@@ -12735,8 +12972,14 @@
         <f>IF(ISBLANK(F29),"",VLOOKUP(F29,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="35"/>
       <c r="B30" s="37" t="s">
         <v>163</v>
@@ -12762,8 +13005,14 @@
         <f>IF(ISBLANK(F30),"",VLOOKUP(F30,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="35"/>
       <c r="B31" s="37" t="s">
         <v>164</v>
@@ -12789,8 +13038,14 @@
         <f>IF(ISBLANK(F31),"",VLOOKUP(F31,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="35"/>
       <c r="B32" s="37" t="s">
         <v>165</v>
@@ -12816,8 +13071,14 @@
         <f>IF(ISBLANK(F32),"",VLOOKUP(F32,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="35"/>
       <c r="B33" s="37" t="s">
         <v>166</v>
@@ -12843,8 +13104,14 @@
         <f>IF(ISBLANK(F33),"",VLOOKUP(F33,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="35"/>
       <c r="B34" s="37" t="s">
         <v>167</v>
@@ -12870,8 +13137,14 @@
         <f>IF(ISBLANK(F34),"",VLOOKUP(F34,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="35"/>
       <c r="B35" s="37" t="s">
         <v>168</v>
@@ -12897,8 +13170,14 @@
         <f>IF(ISBLANK(F35),"",VLOOKUP(F35,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="35"/>
       <c r="B36" s="37" t="s">
         <v>169</v>
@@ -12924,8 +13203,14 @@
         <f>IF(ISBLANK(F36),"",VLOOKUP(F36,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="35"/>
       <c r="B37" s="37" t="s">
         <v>170</v>
@@ -12951,8 +13236,14 @@
         <f>IF(ISBLANK(F37),"",VLOOKUP(F37,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="35"/>
       <c r="B38" s="37" t="s">
         <v>171</v>
@@ -12978,8 +13269,14 @@
         <f>IF(ISBLANK(F38),"",VLOOKUP(F38,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="35"/>
       <c r="B39" s="37" t="s">
         <v>172</v>
@@ -13005,8 +13302,14 @@
         <f>IF(ISBLANK(F39),"",VLOOKUP(F39,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="N39" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="35"/>
       <c r="B40" s="37" t="s">
         <v>173</v>
@@ -13032,8 +13335,14 @@
         <f>IF(ISBLANK(F40),"",VLOOKUP(F40,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="N40" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="35"/>
       <c r="B41" s="37" t="s">
         <v>174</v>
@@ -13059,8 +13368,14 @@
         <f>IF(ISBLANK(F41),"",VLOOKUP(F41,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="35"/>
       <c r="B42" s="37" t="s">
         <v>175</v>
@@ -13086,8 +13401,14 @@
         <f>IF(ISBLANK(F42),"",VLOOKUP(F42,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="35"/>
       <c r="B43" s="37" t="s">
         <v>176</v>
@@ -13113,8 +13434,14 @@
         <f>IF(ISBLANK(F43),"",VLOOKUP(F43,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="35"/>
       <c r="B44" s="37" t="s">
         <v>177</v>
@@ -13140,8 +13467,14 @@
         <f>IF(ISBLANK(F44),"",VLOOKUP(F44,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="35"/>
       <c r="B45" s="37" t="s">
         <v>178</v>
@@ -13167,8 +13500,14 @@
         <f>IF(ISBLANK(F45),"",VLOOKUP(F45,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="35"/>
       <c r="B46" s="37" t="s">
         <v>179</v>
@@ -13194,8 +13533,14 @@
         <f>IF(ISBLANK(F46),"",VLOOKUP(F46,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="35"/>
       <c r="B47" s="37" t="s">
         <v>180</v>
@@ -13221,8 +13566,14 @@
         <f>IF(ISBLANK(F47),"",VLOOKUP(F47,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="35"/>
       <c r="B48" s="37" t="s">
         <v>181</v>
@@ -13248,8 +13599,14 @@
         <f>IF(ISBLANK(F48),"",VLOOKUP(F48,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="35"/>
       <c r="B49" s="37" t="s">
         <v>182</v>
@@ -13275,8 +13632,14 @@
         <f>IF(ISBLANK(F49),"",VLOOKUP(F49,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="35"/>
       <c r="B50" s="37" t="s">
         <v>183</v>
@@ -13302,8 +13665,14 @@
         <f>IF(ISBLANK(F50),"",VLOOKUP(F50,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="35"/>
       <c r="B51" s="61" t="s">
         <v>256</v>
@@ -13329,8 +13698,14 @@
         <f>IF(ISBLANK(F51),"",VLOOKUP(F51,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="35"/>
       <c r="B52" s="61" t="s">
         <v>257</v>
@@ -13356,8 +13731,14 @@
         <f>IF(ISBLANK(F52),"",VLOOKUP(F52,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="35"/>
       <c r="B53" s="61" t="s">
         <v>258</v>
@@ -13383,8 +13764,14 @@
         <f>IF(ISBLANK(F53),"",VLOOKUP(F53,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="N53" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="35"/>
       <c r="B54" s="61" t="s">
         <v>259</v>
@@ -13410,8 +13797,14 @@
         <f>IF(ISBLANK(F54),"",VLOOKUP(F54,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="35"/>
       <c r="B55" s="61" t="s">
         <v>260</v>
@@ -13437,8 +13830,14 @@
         <f>IF(ISBLANK(F55),"",VLOOKUP(F55,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="35"/>
       <c r="B56" s="61" t="s">
         <v>261</v>
@@ -13464,8 +13863,14 @@
         <f>IF(ISBLANK(F56),"",VLOOKUP(F56,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="N56" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="35"/>
       <c r="B57" s="61" t="s">
         <v>262</v>
@@ -13491,8 +13896,14 @@
         <f>IF(ISBLANK(F57),"",VLOOKUP(F57,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="N57" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="35"/>
       <c r="B58" s="61" t="s">
         <v>263</v>
@@ -13518,8 +13929,14 @@
         <f>IF(ISBLANK(F58),"",VLOOKUP(F58,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="35"/>
       <c r="B59" s="61" t="s">
         <v>264</v>
@@ -13545,8 +13962,14 @@
         <f>IF(ISBLANK(F59),"",VLOOKUP(F59,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="N59" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="35"/>
       <c r="B60" s="61" t="s">
         <v>265</v>
@@ -13572,8 +13995,14 @@
         <f>IF(ISBLANK(F60),"",VLOOKUP(F60,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N60" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="35"/>
       <c r="B61" s="61" t="s">
         <v>266</v>
@@ -13599,8 +14028,14 @@
         <f>IF(ISBLANK(F61),"",VLOOKUP(F61,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="N61" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="35"/>
       <c r="B62" s="62" t="s">
         <v>267</v>
@@ -13626,8 +14061,14 @@
         <f>IF(ISBLANK(F62),"",VLOOKUP(F62,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="N62" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="35"/>
       <c r="B63" s="37"/>
       <c r="C63" s="35"/>
@@ -13644,7 +14085,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:14">
       <c r="A64" s="35"/>
       <c r="B64" s="37"/>
       <c r="C64" s="35"/>

--- a/example_td.xlsx
+++ b/example_td.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Generator\automation-boilerplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav\Documents\GitHub\automation-boilerplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B1306-1A64-4C1F-A790-7EAAA2F83488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63FA35-4DD0-41AB-B1F1-924C8ECBBC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$3:$A$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PID!$A$3:$P$299</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sum!$A$3:$M$300</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Valve!$A$3:$L$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Valve!$A$3:$N$281</definedName>
     <definedName name="ai_hmi_test_perc">AI!$H$5</definedName>
     <definedName name="ai_implc_hmi_perc">AI!$G$5</definedName>
     <definedName name="ai_implc_plc_perc">AI!$F$5</definedName>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="394">
   <si>
     <t>Sheet</t>
   </si>
@@ -1511,9 +1511,6 @@
   <si>
     <t>AS400</t>
   </si>
-  <si>
-    <t>AS500</t>
-  </si>
 </sst>
 </file>
 
@@ -2393,7 +2390,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2666,6 +2663,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2745,306 +2748,13 @@
   <dxfs count="254">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Trade gothic"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F8F8"/>
-          <bgColor rgb="FFF2F2F2"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Trade gothic"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F8F8"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5129,16 +4839,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -5223,6 +4923,309 @@
       <font>
         <color rgb="FF000000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Trade gothic"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F8F8"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Trade gothic"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F8F8"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5839,33 +5842,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="253" headerRowBorderDxfId="252" tableBorderDxfId="251" headerRowCellStyle="Normal 2">
   <autoFilter ref="B3:C14" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="249"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F7" totalsRowShown="0" headerRowDxfId="248" dataDxfId="246" headerRowBorderDxfId="247" tableBorderDxfId="245" headerRowCellStyle="Normal 2">
   <autoFilter ref="E3:F7" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="244"/>
+    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="243"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="242" tableBorderDxfId="241">
   <autoFilter ref="H3:I7" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="240"/>
+    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="239"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6433,26 +6436,26 @@
       <c r="F12" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="118" t="s">
         <v>334</v>
       </c>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
     </row>
     <row r="32" spans="1:6" ht="97.5" customHeight="1">
       <c r="A32" s="98" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="121" t="s">
         <v>363</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="121"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:A12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -6461,52 +6464,52 @@
     <mergeCell ref="B32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="D6 D8:D9 F10 B4:F5 B11:F11 D12:F12">
-    <cfRule type="cellIs" dxfId="253" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="238" priority="8" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10 B12">
-    <cfRule type="cellIs" dxfId="252" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="237" priority="14" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C10 C12">
-    <cfRule type="cellIs" dxfId="251" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="236" priority="15" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="250" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="235" priority="17" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="cellIs" dxfId="249" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="234" priority="18" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="248" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="233" priority="6" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="247" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="232" priority="4" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="246" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="231" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="245" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="230" priority="2" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="244" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6550,16 +6553,16 @@
       <c r="L1" s="47"/>
       <c r="M1" s="48"/>
       <c r="N1" s="46"/>
-      <c r="O1" s="125" t="str">
+      <c r="O1" s="127" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="122" t="str">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="124" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="R1" s="123"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
       <c r="A2" s="46"/>
@@ -6576,61 +6579,61 @@
       <c r="L2" s="47"/>
       <c r="M2" s="48"/>
       <c r="N2" s="46"/>
-      <c r="O2" s="125" t="str">
+      <c r="O2" s="127" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="122" t="str">
+      <c r="P2" s="127"/>
+      <c r="Q2" s="124" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="R2" s="123"/>
+      <c r="R2" s="125"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="127"/>
-      <c r="B3" s="129" t="s">
+      <c r="A3" s="129"/>
+      <c r="B3" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="J3" s="130" t="s">
+      <c r="J3" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="130" t="s">
+      <c r="K3" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="131" t="s">
+      <c r="L3" s="133" t="s">
         <v>197</v>
       </c>
       <c r="M3" s="50"/>
-      <c r="N3" s="129" t="s">
+      <c r="N3" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="130" t="s">
+      <c r="O3" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="P3" s="130" t="s">
+      <c r="P3" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="Q3" s="130" t="s">
+      <c r="Q3" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="R3" s="132" t="s">
+      <c r="R3" s="134" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="53" customFormat="1" ht="11.25">
-      <c r="A4" s="128"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="51" t="s">
         <v>199</v>
       </c>
@@ -6675,7 +6678,7 @@
       <c r="Q4" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="R4" s="133"/>
+      <c r="R4" s="135"/>
     </row>
     <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="54" t="s">
@@ -6954,184 +6957,184 @@
     <mergeCell ref="R3:R4"/>
   </mergeCells>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="76" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="201" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="202" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="203" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="204" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="72" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="213" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="214" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="215" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="216" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F6">
-    <cfRule type="cellIs" dxfId="68" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="209" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="210" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="211" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="212" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="64" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="205" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="206" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="207" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="208" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="60" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="189" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="190" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="191" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="192" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="56" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="197" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="198" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="199" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="200" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R16">
-    <cfRule type="cellIs" dxfId="52" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="193" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="194" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="195" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="196" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F9">
-    <cfRule type="cellIs" dxfId="48" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="185" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="186" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="187" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="188" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:L9">
-    <cfRule type="cellIs" dxfId="44" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="181" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="182" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="183" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="184" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11">
-    <cfRule type="cellIs" dxfId="40" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="177" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="178" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="179" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="180" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F16">
-    <cfRule type="cellIs" dxfId="36" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="173" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="174" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="175" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="176" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:L16">
-    <cfRule type="cellIs" dxfId="32" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="169" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="170" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="171" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="172" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:Q9 N11:Q16">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7233,7 +7236,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="124">
+      <c r="A4" s="126">
         <f>COUNTA(A6:A296)</f>
         <v>10</v>
       </c>
@@ -7259,7 +7262,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="124"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="108"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -11750,44 +11753,44 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:I296">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J296">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>750</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>500</formula>
       <formula>749</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
       <formula>250</formula>
       <formula>499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A296">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(ISERROR(SEARCH(" ",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B296">
-    <cfRule type="duplicateValues" dxfId="15" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="278"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F296" xr:uid="{7E766BAA-3222-4A1B-96F6-6DD936D34E56}">
@@ -11828,18 +11831,18 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="136" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="E2" s="134" t="s">
+      <c r="C2" s="137"/>
+      <c r="E2" s="136" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="135"/>
-      <c r="H2" s="134" t="s">
+      <c r="F2" s="137"/>
+      <c r="H2" s="136" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="135"/>
+      <c r="I2" s="137"/>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="85" t="s">
@@ -12016,11 +12019,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Blad3"/>
-  <dimension ref="A1:ALI293"/>
+  <dimension ref="A1:ALI282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N6" sqref="N6:N25"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12032,8 +12035,10 @@
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="21" customWidth="1"/>
-    <col min="13" max="994" width="9.140625" style="21"/>
+    <col min="12" max="12" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="994" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:997" ht="18" customHeight="1" thickBot="1">
@@ -12046,15 +12051,17 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
-      <c r="J1" s="96" t="str">
+      <c r="J1" s="96"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="116" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="K1" s="122" t="str">
+      <c r="M1" s="124" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="L1" s="123"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:997" ht="18" customHeight="1">
       <c r="A2" s="42"/>
@@ -12066,15 +12073,17 @@
       <c r="G2" s="42"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="79" t="str">
+      <c r="J2" s="79"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="79" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="K2" s="122" t="str">
+      <c r="M2" s="124" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="L2" s="123"/>
+      <c r="N2" s="125"/>
     </row>
     <row r="3" spans="1:997" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -12113,10 +12122,10 @@
       <c r="L3" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="117" t="s">
         <v>389</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="117" t="s">
         <v>364</v>
       </c>
       <c r="ALG3"/>
@@ -12125,8 +12134,8 @@
     </row>
     <row r="4" spans="1:997" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
-        <f>COUNTA(B6:B293)</f>
+      <c r="B4" s="126">
+        <f>COUNTA(B6:B282)</f>
         <v>57</v>
       </c>
       <c r="C4" s="25"/>
@@ -12134,33 +12143,35 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26">
-        <f t="shared" ref="G4:K4" si="0">COUNTIFS($B$6:$B$293,"&lt;&gt;",G6:G293,"x")</f>
+        <f>COUNTIFS($B$6:$B$282,"&lt;&gt;",G6:G282,"x")</f>
         <v>0</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($B$6:$B$282,"&lt;&gt;",H6:H282,"x")</f>
         <v>0</v>
       </c>
       <c r="I4" s="26">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($B$6:$B$282,"&lt;&gt;",I6:I282,"x")</f>
         <v>0</v>
       </c>
       <c r="J4" s="26">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($B$6:$B$282,"&lt;&gt;",J6:J282,"x")</f>
         <v>0</v>
       </c>
       <c r="K4" s="26">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($B$6:$B$282,"&lt;&gt;",K6:K282,"x")</f>
         <v>0</v>
       </c>
       <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="ALG4"/>
       <c r="ALH4"/>
       <c r="ALI4"/>
     </row>
     <row r="5" spans="1:997" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -12170,22 +12181,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="30">
-        <f t="shared" ref="H5:K5" si="1">IF($B$4=0,"N/A",H4/$B$4)</f>
+        <f t="shared" ref="H5:K5" si="0">IF($B$4=0,"N/A",H4/$B$4)</f>
         <v>0</v>
       </c>
       <c r="I5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
     </row>
     <row r="6" spans="1:997">
       <c r="A6" s="32"/>
@@ -12213,10 +12226,10 @@
         <f>IF(ISBLANK(F6),"",VLOOKUP(F6,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12246,10 +12259,10 @@
         <f>IF(ISBLANK(F7),"",VLOOKUP(F7,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12279,10 +12292,10 @@
         <f>IF(ISBLANK(F8),"",VLOOKUP(F8,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12312,10 +12325,10 @@
         <f>IF(ISBLANK(F9),"",VLOOKUP(F9,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12345,10 +12358,10 @@
         <f>IF(ISBLANK(F10),"",VLOOKUP(F10,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12378,10 +12391,10 @@
         <f>IF(ISBLANK(F11),"",VLOOKUP(F11,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12411,10 +12424,10 @@
         <f>IF(ISBLANK(F12),"",VLOOKUP(F12,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12444,10 +12457,10 @@
         <f>IF(ISBLANK(F13),"",VLOOKUP(F13,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12477,10 +12490,10 @@
         <f>IF(ISBLANK(F14),"",VLOOKUP(F14,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="34" t="s">
         <v>390</v>
       </c>
     </row>
@@ -12510,10 +12523,10 @@
         <f>IF(ISBLANK(F15),"",VLOOKUP(F15,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="34" t="s">
         <v>393</v>
       </c>
     </row>
@@ -12543,10 +12556,10 @@
         <f>IF(ISBLANK(F16),"",VLOOKUP(F16,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="34" t="s">
         <v>393</v>
       </c>
     </row>
@@ -12576,10 +12589,10 @@
         <f>IF(ISBLANK(F17),"",VLOOKUP(F17,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="34" t="s">
         <v>393</v>
       </c>
     </row>
@@ -12609,10 +12622,10 @@
         <f>IF(ISBLANK(F18),"",VLOOKUP(F18,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="34" t="s">
         <v>393</v>
       </c>
     </row>
@@ -12642,10 +12655,10 @@
         <f>IF(ISBLANK(F19),"",VLOOKUP(F19,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="34" t="s">
         <v>393</v>
       </c>
     </row>
@@ -12675,12 +12688,8 @@
         <f>IF(ISBLANK(F20),"",VLOOKUP(F20,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>393</v>
-      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="35"/>
@@ -12708,12 +12717,8 @@
         <f>IF(ISBLANK(F21),"",VLOOKUP(F21,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M21" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>393</v>
-      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="35"/>
@@ -12741,12 +12746,8 @@
         <f>IF(ISBLANK(F22),"",VLOOKUP(F22,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M22" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>393</v>
-      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="35"/>
@@ -12774,12 +12775,8 @@
         <f>IF(ISBLANK(F23),"",VLOOKUP(F23,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M23" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>393</v>
-      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="35"/>
@@ -12807,12 +12804,8 @@
         <f>IF(ISBLANK(F24),"",VLOOKUP(F24,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M24" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>393</v>
-      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="35"/>
@@ -12840,12 +12833,8 @@
         <f>IF(ISBLANK(F25),"",VLOOKUP(F25,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M25" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>394</v>
-      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="35"/>
@@ -12873,12 +12862,8 @@
         <f>IF(ISBLANK(F26),"",VLOOKUP(F26,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M26" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>394</v>
-      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="35"/>
@@ -12906,10 +12891,10 @@
         <f>IF(ISBLANK(F27),"",VLOOKUP(F27,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -12939,10 +12924,10 @@
         <f>IF(ISBLANK(F28),"",VLOOKUP(F28,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -12972,10 +12957,10 @@
         <f>IF(ISBLANK(F29),"",VLOOKUP(F29,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13005,10 +12990,10 @@
         <f>IF(ISBLANK(F30),"",VLOOKUP(F30,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13038,10 +13023,10 @@
         <f>IF(ISBLANK(F31),"",VLOOKUP(F31,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13071,10 +13056,10 @@
         <f>IF(ISBLANK(F32),"",VLOOKUP(F32,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M32" s="21" t="s">
+      <c r="M32" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13104,10 +13089,10 @@
         <f>IF(ISBLANK(F33),"",VLOOKUP(F33,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13137,10 +13122,10 @@
         <f>IF(ISBLANK(F34),"",VLOOKUP(F34,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13170,10 +13155,10 @@
         <f>IF(ISBLANK(F35),"",VLOOKUP(F35,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="N35" s="21" t="s">
+      <c r="N35" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13203,10 +13188,10 @@
         <f>IF(ISBLANK(F36),"",VLOOKUP(F36,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13236,10 +13221,10 @@
         <f>IF(ISBLANK(F37),"",VLOOKUP(F37,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M37" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="N37" s="21" t="s">
+      <c r="N37" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13269,10 +13254,10 @@
         <f>IF(ISBLANK(F38),"",VLOOKUP(F38,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13302,10 +13287,10 @@
         <f>IF(ISBLANK(F39),"",VLOOKUP(F39,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M39" s="21" t="s">
+      <c r="M39" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13335,10 +13320,10 @@
         <f>IF(ISBLANK(F40),"",VLOOKUP(F40,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M40" s="21" t="s">
+      <c r="M40" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13368,10 +13353,10 @@
         <f>IF(ISBLANK(F41),"",VLOOKUP(F41,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M41" s="21" t="s">
+      <c r="M41" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="N41" s="21" t="s">
+      <c r="N41" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13401,10 +13386,10 @@
         <f>IF(ISBLANK(F42),"",VLOOKUP(F42,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M42" s="21" t="s">
+      <c r="M42" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="N42" s="21" t="s">
+      <c r="N42" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13434,10 +13419,10 @@
         <f>IF(ISBLANK(F43),"",VLOOKUP(F43,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M43" s="21" t="s">
+      <c r="M43" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="N43" s="21" t="s">
+      <c r="N43" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13467,10 +13452,10 @@
         <f>IF(ISBLANK(F44),"",VLOOKUP(F44,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M44" s="21" t="s">
+      <c r="M44" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="N44" s="21" t="s">
+      <c r="N44" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13500,10 +13485,10 @@
         <f>IF(ISBLANK(F45),"",VLOOKUP(F45,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="N45" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13533,10 +13518,10 @@
         <f>IF(ISBLANK(F46),"",VLOOKUP(F46,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M46" s="21" t="s">
+      <c r="M46" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="N46" s="21" t="s">
+      <c r="N46" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13566,10 +13551,10 @@
         <f>IF(ISBLANK(F47),"",VLOOKUP(F47,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M47" s="21" t="s">
+      <c r="M47" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="N47" s="21" t="s">
+      <c r="N47" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13599,10 +13584,10 @@
         <f>IF(ISBLANK(F48),"",VLOOKUP(F48,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M48" s="21" t="s">
+      <c r="M48" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="N48" s="21" t="s">
+      <c r="N48" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13632,10 +13617,10 @@
         <f>IF(ISBLANK(F49),"",VLOOKUP(F49,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M49" s="21" t="s">
+      <c r="M49" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="N49" s="21" t="s">
+      <c r="N49" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13665,10 +13650,10 @@
         <f>IF(ISBLANK(F50),"",VLOOKUP(F50,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M50" s="21" t="s">
+      <c r="M50" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="N50" s="21" t="s">
+      <c r="N50" s="34" t="s">
         <v>391</v>
       </c>
     </row>
@@ -13698,10 +13683,10 @@
         <f>IF(ISBLANK(F51),"",VLOOKUP(F51,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M51" s="21" t="s">
+      <c r="M51" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="N51" s="21" t="s">
+      <c r="N51" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13731,10 +13716,10 @@
         <f>IF(ISBLANK(F52),"",VLOOKUP(F52,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M52" s="21" t="s">
+      <c r="M52" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="N52" s="21" t="s">
+      <c r="N52" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13764,10 +13749,10 @@
         <f>IF(ISBLANK(F53),"",VLOOKUP(F53,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M53" s="21" t="s">
+      <c r="M53" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="N53" s="21" t="s">
+      <c r="N53" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13797,10 +13782,10 @@
         <f>IF(ISBLANK(F54),"",VLOOKUP(F54,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M54" s="21" t="s">
+      <c r="M54" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="N54" s="21" t="s">
+      <c r="N54" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13830,10 +13815,10 @@
         <f>IF(ISBLANK(F55),"",VLOOKUP(F55,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M55" s="21" t="s">
+      <c r="M55" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="N55" s="21" t="s">
+      <c r="N55" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13863,10 +13848,10 @@
         <f>IF(ISBLANK(F56),"",VLOOKUP(F56,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M56" s="21" t="s">
+      <c r="M56" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="N56" s="21" t="s">
+      <c r="N56" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13896,10 +13881,10 @@
         <f>IF(ISBLANK(F57),"",VLOOKUP(F57,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="M57" s="34" t="s">
         <v>371</v>
       </c>
-      <c r="N57" s="21" t="s">
+      <c r="N57" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13929,10 +13914,10 @@
         <f>IF(ISBLANK(F58),"",VLOOKUP(F58,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M58" s="21" t="s">
+      <c r="M58" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="N58" s="21" t="s">
+      <c r="N58" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13962,10 +13947,10 @@
         <f>IF(ISBLANK(F59),"",VLOOKUP(F59,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M59" s="21" t="s">
+      <c r="M59" s="34" t="s">
         <v>373</v>
       </c>
-      <c r="N59" s="21" t="s">
+      <c r="N59" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -13995,10 +13980,10 @@
         <f>IF(ISBLANK(F60),"",VLOOKUP(F60,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M60" s="21" t="s">
+      <c r="M60" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="N60" s="21" t="s">
+      <c r="N60" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -14028,10 +14013,10 @@
         <f>IF(ISBLANK(F61),"",VLOOKUP(F61,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M61" s="21" t="s">
+      <c r="M61" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="N61" s="21" t="s">
+      <c r="N61" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -14061,10 +14046,10 @@
         <f>IF(ISBLANK(F62),"",VLOOKUP(F62,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M62" s="21" t="s">
+      <c r="M62" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="N62" s="21" t="s">
+      <c r="N62" s="34" t="s">
         <v>392</v>
       </c>
     </row>
@@ -14084,6 +14069,8 @@
         <f>IF(ISBLANK(F63),"",VLOOKUP(F63,valve_configs_table[],2,))</f>
         <v/>
       </c>
+      <c r="M63" s="34"/>
+      <c r="N63" s="34"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="35"/>
@@ -14101,8 +14088,10 @@
         <f>IF(ISBLANK(F64),"",VLOOKUP(F64,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="35"/>
       <c r="B65" s="37"/>
       <c r="C65" s="35"/>
@@ -14118,8 +14107,10 @@
         <f>IF(ISBLANK(F65),"",VLOOKUP(F65,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="34"/>
+      <c r="N65" s="34"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="35"/>
       <c r="B66" s="37"/>
       <c r="C66" s="35"/>
@@ -14135,8 +14126,10 @@
         <f>IF(ISBLANK(F66),"",VLOOKUP(F66,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="35"/>
       <c r="B67" s="37"/>
       <c r="C67" s="35"/>
@@ -14152,8 +14145,10 @@
         <f>IF(ISBLANK(F67),"",VLOOKUP(F67,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="34"/>
+      <c r="N67" s="34"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="35"/>
       <c r="B68" s="37"/>
       <c r="C68" s="35"/>
@@ -14169,8 +14164,10 @@
         <f>IF(ISBLANK(F68),"",VLOOKUP(F68,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="35"/>
       <c r="B69" s="37"/>
       <c r="C69" s="35"/>
@@ -14186,8 +14183,10 @@
         <f>IF(ISBLANK(F69),"",VLOOKUP(F69,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="34"/>
+      <c r="N69" s="34"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="35"/>
       <c r="B70" s="37"/>
       <c r="C70" s="35"/>
@@ -14203,8 +14202,10 @@
         <f>IF(ISBLANK(F70),"",VLOOKUP(F70,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="34"/>
+      <c r="N70" s="34"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="35"/>
       <c r="B71" s="37"/>
       <c r="C71" s="35"/>
@@ -14220,8 +14221,10 @@
         <f>IF(ISBLANK(F71),"",VLOOKUP(F71,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="35"/>
       <c r="B72" s="37"/>
       <c r="C72" s="35"/>
@@ -14237,8 +14240,10 @@
         <f>IF(ISBLANK(F72),"",VLOOKUP(F72,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="35"/>
       <c r="B73" s="37"/>
       <c r="C73" s="35"/>
@@ -14254,8 +14259,10 @@
         <f>IF(ISBLANK(F73),"",VLOOKUP(F73,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="35"/>
       <c r="B74" s="37"/>
       <c r="C74" s="35"/>
@@ -14271,8 +14278,10 @@
         <f>IF(ISBLANK(F74),"",VLOOKUP(F74,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" s="34"/>
+      <c r="N74" s="34"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="35"/>
       <c r="B75" s="37"/>
       <c r="C75" s="35"/>
@@ -14288,8 +14297,10 @@
         <f>IF(ISBLANK(F75),"",VLOOKUP(F75,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="35"/>
       <c r="B76" s="37"/>
       <c r="C76" s="35"/>
@@ -14305,8 +14316,10 @@
         <f>IF(ISBLANK(F76),"",VLOOKUP(F76,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="35"/>
       <c r="B77" s="37"/>
       <c r="C77" s="35"/>
@@ -14322,8 +14335,10 @@
         <f>IF(ISBLANK(F77),"",VLOOKUP(F77,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="34"/>
+      <c r="N77" s="34"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="35"/>
       <c r="B78" s="37"/>
       <c r="C78" s="35"/>
@@ -14339,8 +14354,10 @@
         <f>IF(ISBLANK(F78),"",VLOOKUP(F78,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="35"/>
       <c r="B79" s="37"/>
       <c r="C79" s="35"/>
@@ -14356,8 +14373,10 @@
         <f>IF(ISBLANK(F79),"",VLOOKUP(F79,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="34"/>
+      <c r="N79" s="34"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="35"/>
       <c r="B80" s="37"/>
       <c r="C80" s="35"/>
@@ -14373,8 +14392,10 @@
         <f>IF(ISBLANK(F80),"",VLOOKUP(F80,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="35"/>
       <c r="B81" s="37"/>
       <c r="C81" s="35"/>
@@ -14390,8 +14411,10 @@
         <f>IF(ISBLANK(F81),"",VLOOKUP(F81,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="35"/>
       <c r="B82" s="37"/>
       <c r="C82" s="35"/>
@@ -14407,8 +14430,10 @@
         <f>IF(ISBLANK(F82),"",VLOOKUP(F82,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="35"/>
       <c r="B83" s="37"/>
       <c r="C83" s="35"/>
@@ -14424,8 +14449,10 @@
         <f>IF(ISBLANK(F83),"",VLOOKUP(F83,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="35"/>
       <c r="B84" s="37"/>
       <c r="C84" s="35"/>
@@ -14441,8 +14468,10 @@
         <f>IF(ISBLANK(F84),"",VLOOKUP(F84,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="35"/>
       <c r="B85" s="37"/>
       <c r="C85" s="35"/>
@@ -14458,8 +14487,10 @@
         <f>IF(ISBLANK(F85),"",VLOOKUP(F85,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="35"/>
       <c r="B86" s="37"/>
       <c r="C86" s="35"/>
@@ -14475,8 +14506,10 @@
         <f>IF(ISBLANK(F86),"",VLOOKUP(F86,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="35"/>
       <c r="B87" s="37"/>
       <c r="C87" s="35"/>
@@ -14492,8 +14525,10 @@
         <f>IF(ISBLANK(F87),"",VLOOKUP(F87,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="35"/>
       <c r="B88" s="37"/>
       <c r="C88" s="35"/>
@@ -14509,8 +14544,10 @@
         <f>IF(ISBLANK(F88),"",VLOOKUP(F88,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="35"/>
       <c r="B89" s="37"/>
       <c r="C89" s="35"/>
@@ -14526,8 +14563,10 @@
         <f>IF(ISBLANK(F89),"",VLOOKUP(F89,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="35"/>
       <c r="B90" s="37"/>
       <c r="C90" s="35"/>
@@ -14543,8 +14582,10 @@
         <f>IF(ISBLANK(F90),"",VLOOKUP(F90,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="35"/>
       <c r="B91" s="37"/>
       <c r="C91" s="35"/>
@@ -14560,8 +14601,10 @@
         <f>IF(ISBLANK(F91),"",VLOOKUP(F91,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="35"/>
       <c r="B92" s="37"/>
       <c r="C92" s="35"/>
@@ -14577,8 +14620,10 @@
         <f>IF(ISBLANK(F92),"",VLOOKUP(F92,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="35"/>
       <c r="B93" s="37"/>
       <c r="C93" s="35"/>
@@ -14594,8 +14639,10 @@
         <f>IF(ISBLANK(F93),"",VLOOKUP(F93,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="35"/>
       <c r="B94" s="37"/>
       <c r="C94" s="35"/>
@@ -14611,8 +14658,10 @@
         <f>IF(ISBLANK(F94),"",VLOOKUP(F94,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="35"/>
       <c r="B95" s="37"/>
       <c r="C95" s="35"/>
@@ -14628,8 +14677,10 @@
         <f>IF(ISBLANK(F95),"",VLOOKUP(F95,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="35"/>
       <c r="B96" s="37"/>
       <c r="C96" s="35"/>
@@ -14645,8 +14696,10 @@
         <f>IF(ISBLANK(F96),"",VLOOKUP(F96,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="35"/>
       <c r="B97" s="37"/>
       <c r="C97" s="35"/>
@@ -14662,8 +14715,10 @@
         <f>IF(ISBLANK(F97),"",VLOOKUP(F97,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="35"/>
       <c r="B98" s="37"/>
       <c r="C98" s="35"/>
@@ -14679,8 +14734,10 @@
         <f>IF(ISBLANK(F98),"",VLOOKUP(F98,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="35"/>
       <c r="B99" s="37"/>
       <c r="C99" s="35"/>
@@ -14696,8 +14753,10 @@
         <f>IF(ISBLANK(F99),"",VLOOKUP(F99,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="35"/>
       <c r="B100" s="37"/>
       <c r="C100" s="35"/>
@@ -14713,8 +14772,10 @@
         <f>IF(ISBLANK(F100),"",VLOOKUP(F100,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="35"/>
       <c r="B101" s="37"/>
       <c r="C101" s="35"/>
@@ -14730,8 +14791,10 @@
         <f>IF(ISBLANK(F101),"",VLOOKUP(F101,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="35"/>
       <c r="B102" s="37"/>
       <c r="C102" s="35"/>
@@ -14747,8 +14810,10 @@
         <f>IF(ISBLANK(F102),"",VLOOKUP(F102,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="35"/>
       <c r="B103" s="37"/>
       <c r="C103" s="35"/>
@@ -14764,8 +14829,10 @@
         <f>IF(ISBLANK(F103),"",VLOOKUP(F103,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="35"/>
       <c r="B104" s="37"/>
       <c r="C104" s="35"/>
@@ -14781,8 +14848,10 @@
         <f>IF(ISBLANK(F104),"",VLOOKUP(F104,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="35"/>
       <c r="B105" s="37"/>
       <c r="C105" s="35"/>
@@ -14798,8 +14867,10 @@
         <f>IF(ISBLANK(F105),"",VLOOKUP(F105,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="35"/>
       <c r="B106" s="37"/>
       <c r="C106" s="35"/>
@@ -14815,8 +14886,10 @@
         <f>IF(ISBLANK(F106),"",VLOOKUP(F106,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="34"/>
+      <c r="N106" s="34"/>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="35"/>
       <c r="B107" s="37"/>
       <c r="C107" s="35"/>
@@ -14832,8 +14905,10 @@
         <f>IF(ISBLANK(F107),"",VLOOKUP(F107,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="35"/>
       <c r="B108" s="37"/>
       <c r="C108" s="35"/>
@@ -14849,8 +14924,10 @@
         <f>IF(ISBLANK(F108),"",VLOOKUP(F108,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="35"/>
       <c r="B109" s="37"/>
       <c r="C109" s="35"/>
@@ -14866,8 +14943,10 @@
         <f>IF(ISBLANK(F109),"",VLOOKUP(F109,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="35"/>
       <c r="B110" s="37"/>
       <c r="C110" s="35"/>
@@ -14883,8 +14962,10 @@
         <f>IF(ISBLANK(F110),"",VLOOKUP(F110,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" s="34"/>
+      <c r="N110" s="34"/>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="35"/>
       <c r="B111" s="37"/>
       <c r="C111" s="35"/>
@@ -14900,8 +14981,10 @@
         <f>IF(ISBLANK(F111),"",VLOOKUP(F111,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" s="34"/>
+      <c r="N111" s="34"/>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="35"/>
       <c r="B112" s="37"/>
       <c r="C112" s="35"/>
@@ -14917,8 +15000,10 @@
         <f>IF(ISBLANK(F112),"",VLOOKUP(F112,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="35"/>
       <c r="B113" s="37"/>
       <c r="C113" s="35"/>
@@ -14934,8 +15019,10 @@
         <f>IF(ISBLANK(F113),"",VLOOKUP(F113,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="35"/>
       <c r="B114" s="37"/>
       <c r="C114" s="35"/>
@@ -14951,8 +15038,10 @@
         <f>IF(ISBLANK(F114),"",VLOOKUP(F114,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="35"/>
       <c r="B115" s="37"/>
       <c r="C115" s="35"/>
@@ -14968,8 +15057,10 @@
         <f>IF(ISBLANK(F115),"",VLOOKUP(F115,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" s="34"/>
+      <c r="N115" s="34"/>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="35"/>
       <c r="B116" s="37"/>
       <c r="C116" s="35"/>
@@ -14985,8 +15076,10 @@
         <f>IF(ISBLANK(F116),"",VLOOKUP(F116,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="35"/>
       <c r="B117" s="37"/>
       <c r="C117" s="35"/>
@@ -15002,8 +15095,10 @@
         <f>IF(ISBLANK(F117),"",VLOOKUP(F117,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="35"/>
       <c r="B118" s="37"/>
       <c r="C118" s="35"/>
@@ -15019,8 +15114,10 @@
         <f>IF(ISBLANK(F118),"",VLOOKUP(F118,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="35"/>
       <c r="B119" s="37"/>
       <c r="C119" s="35"/>
@@ -15036,8 +15133,10 @@
         <f>IF(ISBLANK(F119),"",VLOOKUP(F119,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="35"/>
       <c r="B120" s="37"/>
       <c r="C120" s="35"/>
@@ -15053,8 +15152,10 @@
         <f>IF(ISBLANK(F120),"",VLOOKUP(F120,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120" s="34"/>
+      <c r="N120" s="34"/>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="35"/>
       <c r="B121" s="37"/>
       <c r="C121" s="35"/>
@@ -15070,8 +15171,10 @@
         <f>IF(ISBLANK(F121),"",VLOOKUP(F121,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="34"/>
+      <c r="N121" s="34"/>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="35"/>
       <c r="B122" s="37"/>
       <c r="C122" s="35"/>
@@ -15087,8 +15190,10 @@
         <f>IF(ISBLANK(F122),"",VLOOKUP(F122,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="35"/>
       <c r="B123" s="37"/>
       <c r="C123" s="35"/>
@@ -15104,8 +15209,10 @@
         <f>IF(ISBLANK(F123),"",VLOOKUP(F123,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" s="34"/>
+      <c r="N123" s="34"/>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="35"/>
       <c r="B124" s="37"/>
       <c r="C124" s="35"/>
@@ -15121,8 +15228,10 @@
         <f>IF(ISBLANK(F124),"",VLOOKUP(F124,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="35"/>
       <c r="B125" s="37"/>
       <c r="C125" s="35"/>
@@ -15138,8 +15247,10 @@
         <f>IF(ISBLANK(F125),"",VLOOKUP(F125,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" s="34"/>
+      <c r="N125" s="34"/>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="35"/>
       <c r="B126" s="37"/>
       <c r="C126" s="35"/>
@@ -15155,8 +15266,10 @@
         <f>IF(ISBLANK(F126),"",VLOOKUP(F126,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" s="34"/>
+      <c r="N126" s="34"/>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="35"/>
       <c r="B127" s="37"/>
       <c r="C127" s="35"/>
@@ -15172,8 +15285,10 @@
         <f>IF(ISBLANK(F127),"",VLOOKUP(F127,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127" s="34"/>
+      <c r="N127" s="34"/>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="35"/>
       <c r="B128" s="37"/>
       <c r="C128" s="35"/>
@@ -15189,8 +15304,10 @@
         <f>IF(ISBLANK(F128),"",VLOOKUP(F128,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" s="34"/>
+      <c r="N128" s="34"/>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="35"/>
       <c r="B129" s="37"/>
       <c r="C129" s="35"/>
@@ -15206,8 +15323,10 @@
         <f>IF(ISBLANK(F129),"",VLOOKUP(F129,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" s="34"/>
+      <c r="N129" s="34"/>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="35"/>
       <c r="B130" s="37"/>
       <c r="C130" s="35"/>
@@ -15223,8 +15342,10 @@
         <f>IF(ISBLANK(F130),"",VLOOKUP(F130,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" s="34"/>
+      <c r="N130" s="34"/>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="35"/>
       <c r="B131" s="37"/>
       <c r="C131" s="35"/>
@@ -15240,8 +15361,10 @@
         <f>IF(ISBLANK(F131),"",VLOOKUP(F131,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131" s="34"/>
+      <c r="N131" s="34"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="35"/>
       <c r="B132" s="37"/>
       <c r="C132" s="35"/>
@@ -15257,8 +15380,10 @@
         <f>IF(ISBLANK(F132),"",VLOOKUP(F132,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="35"/>
       <c r="B133" s="37"/>
       <c r="C133" s="35"/>
@@ -15274,8 +15399,10 @@
         <f>IF(ISBLANK(F133),"",VLOOKUP(F133,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" s="34"/>
+      <c r="N133" s="34"/>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="35"/>
       <c r="B134" s="37"/>
       <c r="C134" s="35"/>
@@ -15291,8 +15418,10 @@
         <f>IF(ISBLANK(F134),"",VLOOKUP(F134,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" s="34"/>
+      <c r="N134" s="34"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="35"/>
       <c r="B135" s="37"/>
       <c r="C135" s="35"/>
@@ -15308,8 +15437,10 @@
         <f>IF(ISBLANK(F135),"",VLOOKUP(F135,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135" s="34"/>
+      <c r="N135" s="34"/>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="35"/>
       <c r="B136" s="37"/>
       <c r="C136" s="35"/>
@@ -15325,8 +15456,10 @@
         <f>IF(ISBLANK(F136),"",VLOOKUP(F136,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" s="34"/>
+      <c r="N136" s="34"/>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="35"/>
       <c r="B137" s="37"/>
       <c r="C137" s="35"/>
@@ -15342,8 +15475,10 @@
         <f>IF(ISBLANK(F137),"",VLOOKUP(F137,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" s="34"/>
+      <c r="N137" s="34"/>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="35"/>
       <c r="B138" s="37"/>
       <c r="C138" s="35"/>
@@ -15359,8 +15494,10 @@
         <f>IF(ISBLANK(F138),"",VLOOKUP(F138,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" s="34"/>
+      <c r="N138" s="34"/>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="35"/>
       <c r="B139" s="37"/>
       <c r="C139" s="35"/>
@@ -15376,8 +15513,10 @@
         <f>IF(ISBLANK(F139),"",VLOOKUP(F139,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139" s="34"/>
+      <c r="N139" s="34"/>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="35"/>
       <c r="B140" s="37"/>
       <c r="C140" s="35"/>
@@ -15393,8 +15532,10 @@
         <f>IF(ISBLANK(F140),"",VLOOKUP(F140,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140" s="34"/>
+      <c r="N140" s="34"/>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="35"/>
       <c r="B141" s="37"/>
       <c r="C141" s="35"/>
@@ -15410,8 +15551,10 @@
         <f>IF(ISBLANK(F141),"",VLOOKUP(F141,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141" s="34"/>
+      <c r="N141" s="34"/>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="35"/>
       <c r="B142" s="37"/>
       <c r="C142" s="35"/>
@@ -15427,8 +15570,10 @@
         <f>IF(ISBLANK(F142),"",VLOOKUP(F142,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142" s="34"/>
+      <c r="N142" s="34"/>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="35"/>
       <c r="B143" s="37"/>
       <c r="C143" s="35"/>
@@ -15444,8 +15589,10 @@
         <f>IF(ISBLANK(F143),"",VLOOKUP(F143,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143" s="34"/>
+      <c r="N143" s="34"/>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="35"/>
       <c r="B144" s="37"/>
       <c r="C144" s="35"/>
@@ -15461,8 +15608,10 @@
         <f>IF(ISBLANK(F144),"",VLOOKUP(F144,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144" s="34"/>
+      <c r="N144" s="34"/>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="35"/>
       <c r="B145" s="37"/>
       <c r="C145" s="35"/>
@@ -15478,8 +15627,10 @@
         <f>IF(ISBLANK(F145),"",VLOOKUP(F145,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145" s="34"/>
+      <c r="N145" s="34"/>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="35"/>
       <c r="B146" s="37"/>
       <c r="C146" s="35"/>
@@ -15495,8 +15646,10 @@
         <f>IF(ISBLANK(F146),"",VLOOKUP(F146,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146" s="34"/>
+      <c r="N146" s="34"/>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="35"/>
       <c r="B147" s="37"/>
       <c r="C147" s="35"/>
@@ -15512,8 +15665,10 @@
         <f>IF(ISBLANK(F147),"",VLOOKUP(F147,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147" s="34"/>
+      <c r="N147" s="34"/>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="35"/>
       <c r="B148" s="37"/>
       <c r="C148" s="35"/>
@@ -15529,8 +15684,10 @@
         <f>IF(ISBLANK(F148),"",VLOOKUP(F148,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148" s="34"/>
+      <c r="N148" s="34"/>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="35"/>
       <c r="B149" s="37"/>
       <c r="C149" s="35"/>
@@ -15546,8 +15703,10 @@
         <f>IF(ISBLANK(F149),"",VLOOKUP(F149,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149" s="34"/>
+      <c r="N149" s="34"/>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="35"/>
       <c r="B150" s="37"/>
       <c r="C150" s="35"/>
@@ -15563,8 +15722,10 @@
         <f>IF(ISBLANK(F150),"",VLOOKUP(F150,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150" s="34"/>
+      <c r="N150" s="34"/>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="35"/>
       <c r="B151" s="37"/>
       <c r="C151" s="35"/>
@@ -15580,8 +15741,10 @@
         <f>IF(ISBLANK(F151),"",VLOOKUP(F151,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151" s="34"/>
+      <c r="N151" s="34"/>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="35"/>
       <c r="B152" s="37"/>
       <c r="C152" s="35"/>
@@ -15597,8 +15760,10 @@
         <f>IF(ISBLANK(F152),"",VLOOKUP(F152,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152" s="34"/>
+      <c r="N152" s="34"/>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="35"/>
       <c r="B153" s="37"/>
       <c r="C153" s="35"/>
@@ -15614,8 +15779,10 @@
         <f>IF(ISBLANK(F153),"",VLOOKUP(F153,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153" s="34"/>
+      <c r="N153" s="34"/>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="35"/>
       <c r="B154" s="37"/>
       <c r="C154" s="35"/>
@@ -15631,8 +15798,10 @@
         <f>IF(ISBLANK(F154),"",VLOOKUP(F154,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154" s="34"/>
+      <c r="N154" s="34"/>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="35"/>
       <c r="B155" s="37"/>
       <c r="C155" s="35"/>
@@ -15648,8 +15817,10 @@
         <f>IF(ISBLANK(F155),"",VLOOKUP(F155,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155" s="34"/>
+      <c r="N155" s="34"/>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="35"/>
       <c r="B156" s="37"/>
       <c r="C156" s="35"/>
@@ -15665,8 +15836,10 @@
         <f>IF(ISBLANK(F156),"",VLOOKUP(F156,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156" s="34"/>
+      <c r="N156" s="34"/>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="35"/>
       <c r="B157" s="37"/>
       <c r="C157" s="35"/>
@@ -15682,8 +15855,10 @@
         <f>IF(ISBLANK(F157),"",VLOOKUP(F157,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157" s="34"/>
+      <c r="N157" s="34"/>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="35"/>
       <c r="B158" s="37"/>
       <c r="C158" s="35"/>
@@ -15699,8 +15874,10 @@
         <f>IF(ISBLANK(F158),"",VLOOKUP(F158,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158" s="34"/>
+      <c r="N158" s="34"/>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="35"/>
       <c r="B159" s="37"/>
       <c r="C159" s="35"/>
@@ -15716,8 +15893,10 @@
         <f>IF(ISBLANK(F159),"",VLOOKUP(F159,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159" s="34"/>
+      <c r="N159" s="34"/>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="35"/>
       <c r="B160" s="37"/>
       <c r="C160" s="35"/>
@@ -15733,8 +15912,10 @@
         <f>IF(ISBLANK(F160),"",VLOOKUP(F160,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160" s="34"/>
+      <c r="N160" s="34"/>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="35"/>
       <c r="B161" s="37"/>
       <c r="C161" s="35"/>
@@ -15750,8 +15931,10 @@
         <f>IF(ISBLANK(F161),"",VLOOKUP(F161,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161" s="34"/>
+      <c r="N161" s="34"/>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="35"/>
       <c r="B162" s="37"/>
       <c r="C162" s="35"/>
@@ -15767,8 +15950,10 @@
         <f>IF(ISBLANK(F162),"",VLOOKUP(F162,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162" s="34"/>
+      <c r="N162" s="34"/>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="35"/>
       <c r="B163" s="37"/>
       <c r="C163" s="35"/>
@@ -15784,8 +15969,10 @@
         <f>IF(ISBLANK(F163),"",VLOOKUP(F163,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163" s="34"/>
+      <c r="N163" s="34"/>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="35"/>
       <c r="B164" s="37"/>
       <c r="C164" s="35"/>
@@ -15801,8 +15988,10 @@
         <f>IF(ISBLANK(F164),"",VLOOKUP(F164,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164" s="34"/>
+      <c r="N164" s="34"/>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="35"/>
       <c r="B165" s="37"/>
       <c r="C165" s="35"/>
@@ -15818,8 +16007,10 @@
         <f>IF(ISBLANK(F165),"",VLOOKUP(F165,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165" s="34"/>
+      <c r="N165" s="34"/>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="35"/>
       <c r="B166" s="37"/>
       <c r="C166" s="35"/>
@@ -15835,8 +16026,10 @@
         <f>IF(ISBLANK(F166),"",VLOOKUP(F166,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166" s="34"/>
+      <c r="N166" s="34"/>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="35"/>
       <c r="B167" s="37"/>
       <c r="C167" s="35"/>
@@ -15852,8 +16045,10 @@
         <f>IF(ISBLANK(F167),"",VLOOKUP(F167,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167" s="34"/>
+      <c r="N167" s="34"/>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="35"/>
       <c r="B168" s="37"/>
       <c r="C168" s="35"/>
@@ -15869,8 +16064,10 @@
         <f>IF(ISBLANK(F168),"",VLOOKUP(F168,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168" s="34"/>
+      <c r="N168" s="34"/>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="35"/>
       <c r="B169" s="37"/>
       <c r="C169" s="35"/>
@@ -15886,8 +16083,10 @@
         <f>IF(ISBLANK(F169),"",VLOOKUP(F169,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="M169" s="34"/>
+      <c r="N169" s="34"/>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="35"/>
       <c r="B170" s="37"/>
       <c r="C170" s="35"/>
@@ -15903,8 +16102,10 @@
         <f>IF(ISBLANK(F170),"",VLOOKUP(F170,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170" s="34"/>
+      <c r="N170" s="34"/>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="35"/>
       <c r="B171" s="37"/>
       <c r="C171" s="35"/>
@@ -15920,8 +16121,10 @@
         <f>IF(ISBLANK(F171),"",VLOOKUP(F171,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="M171" s="34"/>
+      <c r="N171" s="34"/>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="35"/>
       <c r="B172" s="37"/>
       <c r="C172" s="35"/>
@@ -15937,8 +16140,10 @@
         <f>IF(ISBLANK(F172),"",VLOOKUP(F172,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172" s="34"/>
+      <c r="N172" s="34"/>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="35"/>
       <c r="B173" s="37"/>
       <c r="C173" s="35"/>
@@ -15954,8 +16159,10 @@
         <f>IF(ISBLANK(F173),"",VLOOKUP(F173,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173" s="34"/>
+      <c r="N173" s="34"/>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="35"/>
       <c r="B174" s="37"/>
       <c r="C174" s="35"/>
@@ -15971,8 +16178,10 @@
         <f>IF(ISBLANK(F174),"",VLOOKUP(F174,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174" s="34"/>
+      <c r="N174" s="34"/>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="35"/>
       <c r="B175" s="37"/>
       <c r="C175" s="35"/>
@@ -15988,8 +16197,10 @@
         <f>IF(ISBLANK(F175),"",VLOOKUP(F175,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175" s="34"/>
+      <c r="N175" s="34"/>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="35"/>
       <c r="B176" s="37"/>
       <c r="C176" s="35"/>
@@ -16005,8 +16216,10 @@
         <f>IF(ISBLANK(F176),"",VLOOKUP(F176,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="M176" s="34"/>
+      <c r="N176" s="34"/>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="35"/>
       <c r="B177" s="37"/>
       <c r="C177" s="35"/>
@@ -16022,8 +16235,10 @@
         <f>IF(ISBLANK(F177),"",VLOOKUP(F177,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177" s="34"/>
+      <c r="N177" s="34"/>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="35"/>
       <c r="B178" s="37"/>
       <c r="C178" s="35"/>
@@ -16039,8 +16254,10 @@
         <f>IF(ISBLANK(F178),"",VLOOKUP(F178,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178" s="34"/>
+      <c r="N178" s="34"/>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="35"/>
       <c r="B179" s="37"/>
       <c r="C179" s="35"/>
@@ -16056,8 +16273,10 @@
         <f>IF(ISBLANK(F179),"",VLOOKUP(F179,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179" s="34"/>
+      <c r="N179" s="34"/>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="35"/>
       <c r="B180" s="37"/>
       <c r="C180" s="35"/>
@@ -16073,8 +16292,10 @@
         <f>IF(ISBLANK(F180),"",VLOOKUP(F180,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180" s="34"/>
+      <c r="N180" s="34"/>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="35"/>
       <c r="B181" s="37"/>
       <c r="C181" s="35"/>
@@ -16090,8 +16311,10 @@
         <f>IF(ISBLANK(F181),"",VLOOKUP(F181,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181" s="34"/>
+      <c r="N181" s="34"/>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="35"/>
       <c r="B182" s="37"/>
       <c r="C182" s="35"/>
@@ -16107,8 +16330,10 @@
         <f>IF(ISBLANK(F182),"",VLOOKUP(F182,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182" s="34"/>
+      <c r="N182" s="34"/>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="35"/>
       <c r="B183" s="37"/>
       <c r="C183" s="35"/>
@@ -16124,8 +16349,10 @@
         <f>IF(ISBLANK(F183),"",VLOOKUP(F183,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183" s="34"/>
+      <c r="N183" s="34"/>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="35"/>
       <c r="B184" s="37"/>
       <c r="C184" s="35"/>
@@ -16141,8 +16368,10 @@
         <f>IF(ISBLANK(F184),"",VLOOKUP(F184,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184" s="34"/>
+      <c r="N184" s="34"/>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="35"/>
       <c r="B185" s="37"/>
       <c r="C185" s="35"/>
@@ -16158,8 +16387,10 @@
         <f>IF(ISBLANK(F185),"",VLOOKUP(F185,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185" s="34"/>
+      <c r="N185" s="34"/>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="35"/>
       <c r="B186" s="37"/>
       <c r="C186" s="35"/>
@@ -16175,8 +16406,10 @@
         <f>IF(ISBLANK(F186),"",VLOOKUP(F186,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186" s="34"/>
+      <c r="N186" s="34"/>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="35"/>
       <c r="B187" s="37"/>
       <c r="C187" s="35"/>
@@ -16192,8 +16425,10 @@
         <f>IF(ISBLANK(F187),"",VLOOKUP(F187,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="M187" s="34"/>
+      <c r="N187" s="34"/>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="35"/>
       <c r="B188" s="37"/>
       <c r="C188" s="35"/>
@@ -16209,8 +16444,10 @@
         <f>IF(ISBLANK(F188),"",VLOOKUP(F188,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="M188" s="34"/>
+      <c r="N188" s="34"/>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="35"/>
       <c r="B189" s="37"/>
       <c r="C189" s="35"/>
@@ -16226,8 +16463,10 @@
         <f>IF(ISBLANK(F189),"",VLOOKUP(F189,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="M189" s="34"/>
+      <c r="N189" s="34"/>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="35"/>
       <c r="B190" s="37"/>
       <c r="C190" s="35"/>
@@ -16243,8 +16482,10 @@
         <f>IF(ISBLANK(F190),"",VLOOKUP(F190,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="M190" s="34"/>
+      <c r="N190" s="34"/>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="35"/>
       <c r="B191" s="37"/>
       <c r="C191" s="35"/>
@@ -16260,8 +16501,10 @@
         <f>IF(ISBLANK(F191),"",VLOOKUP(F191,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="M191" s="34"/>
+      <c r="N191" s="34"/>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="35"/>
       <c r="B192" s="37"/>
       <c r="C192" s="35"/>
@@ -16277,8 +16520,10 @@
         <f>IF(ISBLANK(F192),"",VLOOKUP(F192,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="M192" s="34"/>
+      <c r="N192" s="34"/>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="35"/>
       <c r="B193" s="37"/>
       <c r="C193" s="35"/>
@@ -16294,8 +16539,10 @@
         <f>IF(ISBLANK(F193),"",VLOOKUP(F193,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="1:12">
+      <c r="M193" s="34"/>
+      <c r="N193" s="34"/>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="35"/>
       <c r="B194" s="37"/>
       <c r="C194" s="35"/>
@@ -16311,8 +16558,10 @@
         <f>IF(ISBLANK(F194),"",VLOOKUP(F194,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="M194" s="34"/>
+      <c r="N194" s="34"/>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="35"/>
       <c r="B195" s="37"/>
       <c r="C195" s="35"/>
@@ -16328,8 +16577,10 @@
         <f>IF(ISBLANK(F195),"",VLOOKUP(F195,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="1:12">
+      <c r="M195" s="34"/>
+      <c r="N195" s="34"/>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="35"/>
       <c r="B196" s="37"/>
       <c r="C196" s="35"/>
@@ -16345,8 +16596,10 @@
         <f>IF(ISBLANK(F196),"",VLOOKUP(F196,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="1:12">
+      <c r="M196" s="34"/>
+      <c r="N196" s="34"/>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="35"/>
       <c r="B197" s="37"/>
       <c r="C197" s="35"/>
@@ -16362,8 +16615,10 @@
         <f>IF(ISBLANK(F197),"",VLOOKUP(F197,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="M197" s="34"/>
+      <c r="N197" s="34"/>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="35"/>
       <c r="B198" s="37"/>
       <c r="C198" s="35"/>
@@ -16379,8 +16634,10 @@
         <f>IF(ISBLANK(F198),"",VLOOKUP(F198,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="M198" s="34"/>
+      <c r="N198" s="34"/>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="35"/>
       <c r="B199" s="37"/>
       <c r="C199" s="35"/>
@@ -16396,8 +16653,10 @@
         <f>IF(ISBLANK(F199),"",VLOOKUP(F199,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="1:12">
+      <c r="M199" s="34"/>
+      <c r="N199" s="34"/>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="35"/>
       <c r="B200" s="37"/>
       <c r="C200" s="35"/>
@@ -16413,8 +16672,10 @@
         <f>IF(ISBLANK(F200),"",VLOOKUP(F200,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="1:12">
+      <c r="M200" s="34"/>
+      <c r="N200" s="34"/>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="35"/>
       <c r="B201" s="37"/>
       <c r="C201" s="35"/>
@@ -16430,8 +16691,10 @@
         <f>IF(ISBLANK(F201),"",VLOOKUP(F201,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="M201" s="34"/>
+      <c r="N201" s="34"/>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="35"/>
       <c r="B202" s="37"/>
       <c r="C202" s="35"/>
@@ -16447,8 +16710,10 @@
         <f>IF(ISBLANK(F202),"",VLOOKUP(F202,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="M202" s="34"/>
+      <c r="N202" s="34"/>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="35"/>
       <c r="B203" s="37"/>
       <c r="C203" s="35"/>
@@ -16464,8 +16729,10 @@
         <f>IF(ISBLANK(F203),"",VLOOKUP(F203,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="1:12">
+      <c r="M203" s="34"/>
+      <c r="N203" s="34"/>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="35"/>
       <c r="B204" s="37"/>
       <c r="C204" s="35"/>
@@ -16481,8 +16748,10 @@
         <f>IF(ISBLANK(F204),"",VLOOKUP(F204,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="M204" s="34"/>
+      <c r="N204" s="34"/>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="35"/>
       <c r="B205" s="37"/>
       <c r="C205" s="35"/>
@@ -16498,8 +16767,10 @@
         <f>IF(ISBLANK(F205),"",VLOOKUP(F205,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="M205" s="34"/>
+      <c r="N205" s="34"/>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="35"/>
       <c r="B206" s="37"/>
       <c r="C206" s="35"/>
@@ -16515,8 +16786,10 @@
         <f>IF(ISBLANK(F206),"",VLOOKUP(F206,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="M206" s="34"/>
+      <c r="N206" s="34"/>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="35"/>
       <c r="B207" s="37"/>
       <c r="C207" s="35"/>
@@ -16532,8 +16805,10 @@
         <f>IF(ISBLANK(F207),"",VLOOKUP(F207,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="M207" s="34"/>
+      <c r="N207" s="34"/>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="35"/>
       <c r="B208" s="37"/>
       <c r="C208" s="35"/>
@@ -16549,8 +16824,10 @@
         <f>IF(ISBLANK(F208),"",VLOOKUP(F208,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208" s="34"/>
+      <c r="N208" s="34"/>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="35"/>
       <c r="B209" s="37"/>
       <c r="C209" s="35"/>
@@ -16566,8 +16843,10 @@
         <f>IF(ISBLANK(F209),"",VLOOKUP(F209,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209" s="34"/>
+      <c r="N209" s="34"/>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="35"/>
       <c r="B210" s="37"/>
       <c r="C210" s="35"/>
@@ -16583,8 +16862,10 @@
         <f>IF(ISBLANK(F210),"",VLOOKUP(F210,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210" s="34"/>
+      <c r="N210" s="34"/>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="35"/>
       <c r="B211" s="37"/>
       <c r="C211" s="35"/>
@@ -16600,8 +16881,10 @@
         <f>IF(ISBLANK(F211),"",VLOOKUP(F211,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211" s="34"/>
+      <c r="N211" s="34"/>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="35"/>
       <c r="B212" s="37"/>
       <c r="C212" s="35"/>
@@ -16617,8 +16900,10 @@
         <f>IF(ISBLANK(F212),"",VLOOKUP(F212,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="M212" s="34"/>
+      <c r="N212" s="34"/>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="35"/>
       <c r="B213" s="37"/>
       <c r="C213" s="35"/>
@@ -16634,8 +16919,10 @@
         <f>IF(ISBLANK(F213),"",VLOOKUP(F213,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="M213" s="34"/>
+      <c r="N213" s="34"/>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="35"/>
       <c r="B214" s="37"/>
       <c r="C214" s="35"/>
@@ -16651,8 +16938,10 @@
         <f>IF(ISBLANK(F214),"",VLOOKUP(F214,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="M214" s="34"/>
+      <c r="N214" s="34"/>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="35"/>
       <c r="B215" s="37"/>
       <c r="C215" s="35"/>
@@ -16668,8 +16957,10 @@
         <f>IF(ISBLANK(F215),"",VLOOKUP(F215,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="M215" s="34"/>
+      <c r="N215" s="34"/>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="35"/>
       <c r="B216" s="37"/>
       <c r="C216" s="35"/>
@@ -16685,8 +16976,10 @@
         <f>IF(ISBLANK(F216),"",VLOOKUP(F216,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="M216" s="34"/>
+      <c r="N216" s="34"/>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="35"/>
       <c r="B217" s="37"/>
       <c r="C217" s="35"/>
@@ -16702,8 +16995,10 @@
         <f>IF(ISBLANK(F217),"",VLOOKUP(F217,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="M217" s="34"/>
+      <c r="N217" s="34"/>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="35"/>
       <c r="B218" s="37"/>
       <c r="C218" s="35"/>
@@ -16719,8 +17014,10 @@
         <f>IF(ISBLANK(F218),"",VLOOKUP(F218,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="1:12">
+      <c r="M218" s="34"/>
+      <c r="N218" s="34"/>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="35"/>
       <c r="B219" s="37"/>
       <c r="C219" s="35"/>
@@ -16736,8 +17033,10 @@
         <f>IF(ISBLANK(F219),"",VLOOKUP(F219,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="M219" s="34"/>
+      <c r="N219" s="34"/>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="35"/>
       <c r="B220" s="37"/>
       <c r="C220" s="35"/>
@@ -16753,8 +17052,10 @@
         <f>IF(ISBLANK(F220),"",VLOOKUP(F220,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="1:12">
+      <c r="M220" s="34"/>
+      <c r="N220" s="34"/>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="35"/>
       <c r="B221" s="37"/>
       <c r="C221" s="35"/>
@@ -16770,8 +17071,10 @@
         <f>IF(ISBLANK(F221),"",VLOOKUP(F221,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="1:12">
+      <c r="M221" s="34"/>
+      <c r="N221" s="34"/>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="35"/>
       <c r="B222" s="37"/>
       <c r="C222" s="35"/>
@@ -16787,8 +17090,10 @@
         <f>IF(ISBLANK(F222),"",VLOOKUP(F222,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="1:12">
+      <c r="M222" s="34"/>
+      <c r="N222" s="34"/>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="35"/>
       <c r="B223" s="37"/>
       <c r="C223" s="35"/>
@@ -16804,8 +17109,10 @@
         <f>IF(ISBLANK(F223),"",VLOOKUP(F223,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="1:12">
+      <c r="M223" s="34"/>
+      <c r="N223" s="34"/>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="35"/>
       <c r="B224" s="37"/>
       <c r="C224" s="35"/>
@@ -16821,8 +17128,10 @@
         <f>IF(ISBLANK(F224),"",VLOOKUP(F224,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="1:12">
+      <c r="M224" s="34"/>
+      <c r="N224" s="34"/>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="35"/>
       <c r="B225" s="37"/>
       <c r="C225" s="35"/>
@@ -16838,8 +17147,10 @@
         <f>IF(ISBLANK(F225),"",VLOOKUP(F225,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="226" spans="1:12">
+      <c r="M225" s="34"/>
+      <c r="N225" s="34"/>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="35"/>
       <c r="B226" s="37"/>
       <c r="C226" s="35"/>
@@ -16855,8 +17166,10 @@
         <f>IF(ISBLANK(F226),"",VLOOKUP(F226,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="227" spans="1:12">
+      <c r="M226" s="34"/>
+      <c r="N226" s="34"/>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="35"/>
       <c r="B227" s="37"/>
       <c r="C227" s="35"/>
@@ -16872,8 +17185,10 @@
         <f>IF(ISBLANK(F227),"",VLOOKUP(F227,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="228" spans="1:12">
+      <c r="M227" s="34"/>
+      <c r="N227" s="34"/>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="35"/>
       <c r="B228" s="37"/>
       <c r="C228" s="35"/>
@@ -16889,8 +17204,10 @@
         <f>IF(ISBLANK(F228),"",VLOOKUP(F228,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="M228" s="34"/>
+      <c r="N228" s="34"/>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="35"/>
       <c r="B229" s="37"/>
       <c r="C229" s="35"/>
@@ -16906,8 +17223,10 @@
         <f>IF(ISBLANK(F229),"",VLOOKUP(F229,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="230" spans="1:12">
+      <c r="M229" s="34"/>
+      <c r="N229" s="34"/>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="35"/>
       <c r="B230" s="37"/>
       <c r="C230" s="35"/>
@@ -16923,8 +17242,10 @@
         <f>IF(ISBLANK(F230),"",VLOOKUP(F230,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="231" spans="1:12">
+      <c r="M230" s="34"/>
+      <c r="N230" s="34"/>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="35"/>
       <c r="B231" s="37"/>
       <c r="C231" s="35"/>
@@ -16940,8 +17261,10 @@
         <f>IF(ISBLANK(F231),"",VLOOKUP(F231,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="232" spans="1:12">
+      <c r="M231" s="34"/>
+      <c r="N231" s="34"/>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="35"/>
       <c r="B232" s="37"/>
       <c r="C232" s="35"/>
@@ -16957,8 +17280,10 @@
         <f>IF(ISBLANK(F232),"",VLOOKUP(F232,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="233" spans="1:12">
+      <c r="M232" s="34"/>
+      <c r="N232" s="34"/>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="35"/>
       <c r="B233" s="37"/>
       <c r="C233" s="35"/>
@@ -16974,8 +17299,10 @@
         <f>IF(ISBLANK(F233),"",VLOOKUP(F233,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="234" spans="1:12">
+      <c r="M233" s="34"/>
+      <c r="N233" s="34"/>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="35"/>
       <c r="B234" s="37"/>
       <c r="C234" s="35"/>
@@ -16991,8 +17318,10 @@
         <f>IF(ISBLANK(F234),"",VLOOKUP(F234,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="235" spans="1:12">
+      <c r="M234" s="34"/>
+      <c r="N234" s="34"/>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="35"/>
       <c r="B235" s="37"/>
       <c r="C235" s="35"/>
@@ -17008,8 +17337,10 @@
         <f>IF(ISBLANK(F235),"",VLOOKUP(F235,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="236" spans="1:12">
+      <c r="M235" s="34"/>
+      <c r="N235" s="34"/>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="35"/>
       <c r="B236" s="37"/>
       <c r="C236" s="35"/>
@@ -17025,8 +17356,10 @@
         <f>IF(ISBLANK(F236),"",VLOOKUP(F236,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="237" spans="1:12">
+      <c r="M236" s="34"/>
+      <c r="N236" s="34"/>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="35"/>
       <c r="B237" s="37"/>
       <c r="C237" s="35"/>
@@ -17042,8 +17375,10 @@
         <f>IF(ISBLANK(F237),"",VLOOKUP(F237,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="238" spans="1:12">
+      <c r="M237" s="34"/>
+      <c r="N237" s="34"/>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="35"/>
       <c r="B238" s="37"/>
       <c r="C238" s="35"/>
@@ -17059,8 +17394,10 @@
         <f>IF(ISBLANK(F238),"",VLOOKUP(F238,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="1:12">
+      <c r="M238" s="34"/>
+      <c r="N238" s="34"/>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="35"/>
       <c r="B239" s="37"/>
       <c r="C239" s="35"/>
@@ -17076,8 +17413,10 @@
         <f>IF(ISBLANK(F239),"",VLOOKUP(F239,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="240" spans="1:12">
+      <c r="M239" s="34"/>
+      <c r="N239" s="34"/>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="35"/>
       <c r="B240" s="37"/>
       <c r="C240" s="35"/>
@@ -17093,8 +17432,10 @@
         <f>IF(ISBLANK(F240),"",VLOOKUP(F240,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="1:12">
+      <c r="M240" s="34"/>
+      <c r="N240" s="34"/>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="35"/>
       <c r="B241" s="37"/>
       <c r="C241" s="35"/>
@@ -17110,8 +17451,10 @@
         <f>IF(ISBLANK(F241),"",VLOOKUP(F241,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="1:12">
+      <c r="M241" s="34"/>
+      <c r="N241" s="34"/>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="35"/>
       <c r="B242" s="37"/>
       <c r="C242" s="35"/>
@@ -17127,8 +17470,10 @@
         <f>IF(ISBLANK(F242),"",VLOOKUP(F242,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="1:12">
+      <c r="M242" s="34"/>
+      <c r="N242" s="34"/>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="35"/>
       <c r="B243" s="37"/>
       <c r="C243" s="35"/>
@@ -17144,8 +17489,10 @@
         <f>IF(ISBLANK(F243),"",VLOOKUP(F243,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="1:12">
+      <c r="M243" s="34"/>
+      <c r="N243" s="34"/>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="35"/>
       <c r="B244" s="37"/>
       <c r="C244" s="35"/>
@@ -17161,8 +17508,10 @@
         <f>IF(ISBLANK(F244),"",VLOOKUP(F244,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="1:12">
+      <c r="M244" s="34"/>
+      <c r="N244" s="34"/>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="35"/>
       <c r="B245" s="37"/>
       <c r="C245" s="35"/>
@@ -17178,8 +17527,10 @@
         <f>IF(ISBLANK(F245),"",VLOOKUP(F245,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="1:12">
+      <c r="M245" s="34"/>
+      <c r="N245" s="34"/>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="35"/>
       <c r="B246" s="37"/>
       <c r="C246" s="35"/>
@@ -17195,8 +17546,10 @@
         <f>IF(ISBLANK(F246),"",VLOOKUP(F246,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="1:12">
+      <c r="M246" s="34"/>
+      <c r="N246" s="34"/>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="35"/>
       <c r="B247" s="37"/>
       <c r="C247" s="35"/>
@@ -17212,8 +17565,10 @@
         <f>IF(ISBLANK(F247),"",VLOOKUP(F247,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="248" spans="1:12">
+      <c r="M247" s="34"/>
+      <c r="N247" s="34"/>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="35"/>
       <c r="B248" s="37"/>
       <c r="C248" s="35"/>
@@ -17229,8 +17584,10 @@
         <f>IF(ISBLANK(F248),"",VLOOKUP(F248,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="1:12">
+      <c r="M248" s="34"/>
+      <c r="N248" s="34"/>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="35"/>
       <c r="B249" s="37"/>
       <c r="C249" s="35"/>
@@ -17246,8 +17603,10 @@
         <f>IF(ISBLANK(F249),"",VLOOKUP(F249,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="250" spans="1:12">
+      <c r="M249" s="34"/>
+      <c r="N249" s="34"/>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="35"/>
       <c r="B250" s="37"/>
       <c r="C250" s="35"/>
@@ -17263,8 +17622,10 @@
         <f>IF(ISBLANK(F250),"",VLOOKUP(F250,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="1:12">
+      <c r="M250" s="34"/>
+      <c r="N250" s="34"/>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="35"/>
       <c r="B251" s="37"/>
       <c r="C251" s="35"/>
@@ -17280,8 +17641,10 @@
         <f>IF(ISBLANK(F251),"",VLOOKUP(F251,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="1:12">
+      <c r="M251" s="34"/>
+      <c r="N251" s="34"/>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="35"/>
       <c r="B252" s="37"/>
       <c r="C252" s="35"/>
@@ -17297,8 +17660,10 @@
         <f>IF(ISBLANK(F252),"",VLOOKUP(F252,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="1:12">
+      <c r="M252" s="34"/>
+      <c r="N252" s="34"/>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="35"/>
       <c r="B253" s="37"/>
       <c r="C253" s="35"/>
@@ -17314,8 +17679,10 @@
         <f>IF(ISBLANK(F253),"",VLOOKUP(F253,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="1:12">
+      <c r="M253" s="34"/>
+      <c r="N253" s="34"/>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="35"/>
       <c r="B254" s="37"/>
       <c r="C254" s="35"/>
@@ -17331,8 +17698,10 @@
         <f>IF(ISBLANK(F254),"",VLOOKUP(F254,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="1:12">
+      <c r="M254" s="34"/>
+      <c r="N254" s="34"/>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="35"/>
       <c r="B255" s="37"/>
       <c r="C255" s="35"/>
@@ -17348,8 +17717,10 @@
         <f>IF(ISBLANK(F255),"",VLOOKUP(F255,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="1:12">
+      <c r="M255" s="34"/>
+      <c r="N255" s="34"/>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="35"/>
       <c r="B256" s="37"/>
       <c r="C256" s="35"/>
@@ -17365,8 +17736,10 @@
         <f>IF(ISBLANK(F256),"",VLOOKUP(F256,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="1:12">
+      <c r="M256" s="34"/>
+      <c r="N256" s="34"/>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="35"/>
       <c r="B257" s="37"/>
       <c r="C257" s="35"/>
@@ -17382,8 +17755,10 @@
         <f>IF(ISBLANK(F257),"",VLOOKUP(F257,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="1:12">
+      <c r="M257" s="34"/>
+      <c r="N257" s="34"/>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="35"/>
       <c r="B258" s="37"/>
       <c r="C258" s="35"/>
@@ -17399,8 +17774,10 @@
         <f>IF(ISBLANK(F258),"",VLOOKUP(F258,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="1:12">
+      <c r="M258" s="34"/>
+      <c r="N258" s="34"/>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="35"/>
       <c r="B259" s="37"/>
       <c r="C259" s="35"/>
@@ -17416,8 +17793,10 @@
         <f>IF(ISBLANK(F259),"",VLOOKUP(F259,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="1:12">
+      <c r="M259" s="34"/>
+      <c r="N259" s="34"/>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="35"/>
       <c r="B260" s="37"/>
       <c r="C260" s="35"/>
@@ -17433,8 +17812,10 @@
         <f>IF(ISBLANK(F260),"",VLOOKUP(F260,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="1:12">
+      <c r="M260" s="34"/>
+      <c r="N260" s="34"/>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="35"/>
       <c r="B261" s="37"/>
       <c r="C261" s="35"/>
@@ -17450,8 +17831,10 @@
         <f>IF(ISBLANK(F261),"",VLOOKUP(F261,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="1:12">
+      <c r="M261" s="34"/>
+      <c r="N261" s="34"/>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="35"/>
       <c r="B262" s="37"/>
       <c r="C262" s="35"/>
@@ -17467,8 +17850,10 @@
         <f>IF(ISBLANK(F262),"",VLOOKUP(F262,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="1:12">
+      <c r="M262" s="34"/>
+      <c r="N262" s="34"/>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="35"/>
       <c r="B263" s="37"/>
       <c r="C263" s="35"/>
@@ -17484,8 +17869,10 @@
         <f>IF(ISBLANK(F263),"",VLOOKUP(F263,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="1:12">
+      <c r="M263" s="34"/>
+      <c r="N263" s="34"/>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="35"/>
       <c r="B264" s="37"/>
       <c r="C264" s="35"/>
@@ -17501,8 +17888,10 @@
         <f>IF(ISBLANK(F264),"",VLOOKUP(F264,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="1:12">
+      <c r="M264" s="34"/>
+      <c r="N264" s="34"/>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="35"/>
       <c r="B265" s="37"/>
       <c r="C265" s="35"/>
@@ -17518,8 +17907,10 @@
         <f>IF(ISBLANK(F265),"",VLOOKUP(F265,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="1:12">
+      <c r="M265" s="34"/>
+      <c r="N265" s="34"/>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="35"/>
       <c r="B266" s="37"/>
       <c r="C266" s="35"/>
@@ -17535,8 +17926,10 @@
         <f>IF(ISBLANK(F266),"",VLOOKUP(F266,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="1:12">
+      <c r="M266" s="34"/>
+      <c r="N266" s="34"/>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="35"/>
       <c r="B267" s="37"/>
       <c r="C267" s="35"/>
@@ -17552,8 +17945,10 @@
         <f>IF(ISBLANK(F267),"",VLOOKUP(F267,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="1:12">
+      <c r="M267" s="34"/>
+      <c r="N267" s="34"/>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="35"/>
       <c r="B268" s="37"/>
       <c r="C268" s="35"/>
@@ -17569,8 +17964,10 @@
         <f>IF(ISBLANK(F268),"",VLOOKUP(F268,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="1:12">
+      <c r="M268" s="34"/>
+      <c r="N268" s="34"/>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="35"/>
       <c r="B269" s="37"/>
       <c r="C269" s="35"/>
@@ -17586,8 +17983,10 @@
         <f>IF(ISBLANK(F269),"",VLOOKUP(F269,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="1:12">
+      <c r="M269" s="34"/>
+      <c r="N269" s="34"/>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="35"/>
       <c r="B270" s="37"/>
       <c r="C270" s="35"/>
@@ -17603,8 +18002,10 @@
         <f>IF(ISBLANK(F270),"",VLOOKUP(F270,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="1:12">
+      <c r="M270" s="34"/>
+      <c r="N270" s="34"/>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="35"/>
       <c r="B271" s="37"/>
       <c r="C271" s="35"/>
@@ -17620,8 +18021,10 @@
         <f>IF(ISBLANK(F271),"",VLOOKUP(F271,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="1:12">
+      <c r="M271" s="34"/>
+      <c r="N271" s="34"/>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="35"/>
       <c r="B272" s="37"/>
       <c r="C272" s="35"/>
@@ -17637,8 +18040,10 @@
         <f>IF(ISBLANK(F272),"",VLOOKUP(F272,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="1:12">
+      <c r="M272" s="34"/>
+      <c r="N272" s="34"/>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="35"/>
       <c r="B273" s="37"/>
       <c r="C273" s="35"/>
@@ -17654,8 +18059,10 @@
         <f>IF(ISBLANK(F273),"",VLOOKUP(F273,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="1:12">
+      <c r="M273" s="34"/>
+      <c r="N273" s="34"/>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="35"/>
       <c r="B274" s="37"/>
       <c r="C274" s="35"/>
@@ -17671,8 +18078,10 @@
         <f>IF(ISBLANK(F274),"",VLOOKUP(F274,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="1:12">
+      <c r="M274" s="34"/>
+      <c r="N274" s="34"/>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="35"/>
       <c r="B275" s="37"/>
       <c r="C275" s="35"/>
@@ -17688,8 +18097,10 @@
         <f>IF(ISBLANK(F275),"",VLOOKUP(F275,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="1:12">
+      <c r="M275" s="34"/>
+      <c r="N275" s="34"/>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="35"/>
       <c r="B276" s="37"/>
       <c r="C276" s="35"/>
@@ -17705,8 +18116,10 @@
         <f>IF(ISBLANK(F276),"",VLOOKUP(F276,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="277" spans="1:12">
+      <c r="M276" s="34"/>
+      <c r="N276" s="34"/>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="35"/>
       <c r="B277" s="37"/>
       <c r="C277" s="35"/>
@@ -17722,8 +18135,10 @@
         <f>IF(ISBLANK(F277),"",VLOOKUP(F277,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="1:12">
+      <c r="M277" s="34"/>
+      <c r="N277" s="34"/>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="35"/>
       <c r="B278" s="37"/>
       <c r="C278" s="35"/>
@@ -17739,8 +18154,10 @@
         <f>IF(ISBLANK(F278),"",VLOOKUP(F278,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="279" spans="1:12">
+      <c r="M278" s="34"/>
+      <c r="N278" s="34"/>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="35"/>
       <c r="B279" s="37"/>
       <c r="C279" s="35"/>
@@ -17756,8 +18173,10 @@
         <f>IF(ISBLANK(F279),"",VLOOKUP(F279,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="1:12">
+      <c r="M279" s="34"/>
+      <c r="N279" s="34"/>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="35"/>
       <c r="B280" s="37"/>
       <c r="C280" s="35"/>
@@ -17773,8 +18192,10 @@
         <f>IF(ISBLANK(F280),"",VLOOKUP(F280,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="1:12">
+      <c r="M280" s="34"/>
+      <c r="N280" s="34"/>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" s="35"/>
       <c r="B281" s="37"/>
       <c r="C281" s="35"/>
@@ -17790,243 +18211,60 @@
         <f>IF(ISBLANK(F281),"",VLOOKUP(F281,valve_configs_table[],2,))</f>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="1:12">
+      <c r="M281" s="34"/>
+      <c r="N281" s="34"/>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" s="35"/>
       <c r="B282" s="37"/>
       <c r="C282" s="35"/>
       <c r="D282" s="35"/>
       <c r="E282" s="35"/>
-      <c r="F282" s="35"/>
+      <c r="F282" s="32"/>
       <c r="G282" s="34"/>
       <c r="H282" s="34"/>
       <c r="I282" s="34"/>
       <c r="J282" s="34"/>
       <c r="K282" s="34"/>
-      <c r="L282" s="74" t="str">
-        <f>IF(ISBLANK(F282),"",VLOOKUP(F282,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:12">
-      <c r="A283" s="35"/>
-      <c r="B283" s="37"/>
-      <c r="C283" s="35"/>
-      <c r="D283" s="35"/>
-      <c r="E283" s="35"/>
-      <c r="F283" s="35"/>
-      <c r="G283" s="34"/>
-      <c r="H283" s="34"/>
-      <c r="I283" s="34"/>
-      <c r="J283" s="34"/>
-      <c r="K283" s="34"/>
-      <c r="L283" s="74" t="str">
-        <f>IF(ISBLANK(F283),"",VLOOKUP(F283,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:12">
-      <c r="A284" s="35"/>
-      <c r="B284" s="37"/>
-      <c r="C284" s="35"/>
-      <c r="D284" s="35"/>
-      <c r="E284" s="35"/>
-      <c r="F284" s="35"/>
-      <c r="G284" s="34"/>
-      <c r="H284" s="34"/>
-      <c r="I284" s="34"/>
-      <c r="J284" s="34"/>
-      <c r="K284" s="34"/>
-      <c r="L284" s="74" t="str">
-        <f>IF(ISBLANK(F284),"",VLOOKUP(F284,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:12">
-      <c r="A285" s="35"/>
-      <c r="B285" s="37"/>
-      <c r="C285" s="35"/>
-      <c r="D285" s="35"/>
-      <c r="E285" s="35"/>
-      <c r="F285" s="35"/>
-      <c r="G285" s="34"/>
-      <c r="H285" s="34"/>
-      <c r="I285" s="34"/>
-      <c r="J285" s="34"/>
-      <c r="K285" s="34"/>
-      <c r="L285" s="74" t="str">
-        <f>IF(ISBLANK(F285),"",VLOOKUP(F285,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:12">
-      <c r="A286" s="35"/>
-      <c r="B286" s="37"/>
-      <c r="C286" s="35"/>
-      <c r="D286" s="35"/>
-      <c r="E286" s="35"/>
-      <c r="F286" s="35"/>
-      <c r="G286" s="34"/>
-      <c r="H286" s="34"/>
-      <c r="I286" s="34"/>
-      <c r="J286" s="34"/>
-      <c r="K286" s="34"/>
-      <c r="L286" s="74" t="str">
-        <f>IF(ISBLANK(F286),"",VLOOKUP(F286,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:12">
-      <c r="A287" s="35"/>
-      <c r="B287" s="37"/>
-      <c r="C287" s="35"/>
-      <c r="D287" s="35"/>
-      <c r="E287" s="35"/>
-      <c r="F287" s="35"/>
-      <c r="G287" s="34"/>
-      <c r="H287" s="34"/>
-      <c r="I287" s="34"/>
-      <c r="J287" s="34"/>
-      <c r="K287" s="34"/>
-      <c r="L287" s="74" t="str">
-        <f>IF(ISBLANK(F287),"",VLOOKUP(F287,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:12">
-      <c r="A288" s="35"/>
-      <c r="B288" s="37"/>
-      <c r="C288" s="35"/>
-      <c r="D288" s="35"/>
-      <c r="E288" s="35"/>
-      <c r="F288" s="35"/>
-      <c r="G288" s="34"/>
-      <c r="H288" s="34"/>
-      <c r="I288" s="34"/>
-      <c r="J288" s="34"/>
-      <c r="K288" s="34"/>
-      <c r="L288" s="74" t="str">
-        <f>IF(ISBLANK(F288),"",VLOOKUP(F288,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:12">
-      <c r="A289" s="35"/>
-      <c r="B289" s="37"/>
-      <c r="C289" s="35"/>
-      <c r="D289" s="35"/>
-      <c r="E289" s="35"/>
-      <c r="F289" s="35"/>
-      <c r="G289" s="34"/>
-      <c r="H289" s="34"/>
-      <c r="I289" s="34"/>
-      <c r="J289" s="34"/>
-      <c r="K289" s="34"/>
-      <c r="L289" s="74" t="str">
-        <f>IF(ISBLANK(F289),"",VLOOKUP(F289,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="290" spans="1:12">
-      <c r="A290" s="35"/>
-      <c r="B290" s="37"/>
-      <c r="C290" s="35"/>
-      <c r="D290" s="35"/>
-      <c r="E290" s="35"/>
-      <c r="F290" s="35"/>
-      <c r="G290" s="34"/>
-      <c r="H290" s="34"/>
-      <c r="I290" s="34"/>
-      <c r="J290" s="34"/>
-      <c r="K290" s="34"/>
-      <c r="L290" s="74" t="str">
-        <f>IF(ISBLANK(F290),"",VLOOKUP(F290,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:12">
-      <c r="A291" s="35"/>
-      <c r="B291" s="37"/>
-      <c r="C291" s="35"/>
-      <c r="D291" s="35"/>
-      <c r="E291" s="35"/>
-      <c r="F291" s="35"/>
-      <c r="G291" s="34"/>
-      <c r="H291" s="34"/>
-      <c r="I291" s="34"/>
-      <c r="J291" s="34"/>
-      <c r="K291" s="34"/>
-      <c r="L291" s="74" t="str">
-        <f>IF(ISBLANK(F291),"",VLOOKUP(F291,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:12">
-      <c r="A292" s="35"/>
-      <c r="B292" s="37"/>
-      <c r="C292" s="35"/>
-      <c r="D292" s="35"/>
-      <c r="E292" s="35"/>
-      <c r="F292" s="35"/>
-      <c r="G292" s="34"/>
-      <c r="H292" s="34"/>
-      <c r="I292" s="34"/>
-      <c r="J292" s="34"/>
-      <c r="K292" s="34"/>
-      <c r="L292" s="74" t="str">
-        <f>IF(ISBLANK(F292),"",VLOOKUP(F292,valve_configs_table[],2,))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:12">
-      <c r="A293" s="35"/>
-      <c r="B293" s="37"/>
-      <c r="C293" s="35"/>
-      <c r="D293" s="35"/>
-      <c r="E293" s="35"/>
-      <c r="F293" s="32"/>
-      <c r="G293" s="34"/>
-      <c r="H293" s="34"/>
-      <c r="I293" s="34"/>
-      <c r="J293" s="34"/>
-      <c r="K293" s="34"/>
-      <c r="L293" s="74"/>
+      <c r="L282" s="74"/>
+      <c r="M282" s="34"/>
+      <c r="N282" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L293" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A3:N281" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:K293">
-    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
+  <conditionalFormatting sqref="G6:K282 M6:N282">
+    <cfRule type="cellIs" dxfId="228" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="239" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="duplicateValues" dxfId="238" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="237" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B293 B7:B8 B14:B50">
-    <cfRule type="duplicateValues" dxfId="236" priority="9"/>
+  <conditionalFormatting sqref="B63:B282 B7:B8 B14:B50">
+    <cfRule type="duplicateValues" dxfId="0" priority="287"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F62 F293" xr:uid="{CD348D37-DD25-4857-B38F-E4611E7771B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F62 F282" xr:uid="{CD348D37-DD25-4857-B38F-E4611E7771B6}">
       <formula1>valve_configs_descr</formula1>
     </dataValidation>
   </dataValidations>
@@ -18144,7 +18382,7 @@
     </row>
     <row r="4" spans="1:1009" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B300)</f>
         <v>14</v>
       </c>
@@ -18177,7 +18415,7 @@
     </row>
     <row r="5" spans="1:1009" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -23364,86 +23602,86 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="235" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="231" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="227" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="223" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K300">
-    <cfRule type="cellIs" dxfId="219" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8 B11:B14 B20:B300">
-    <cfRule type="duplicateValues" dxfId="215" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="214" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="213" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="212" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="33"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{858AD274-EE67-43BB-A3F1-3780D7923764}">
@@ -23553,7 +23791,7 @@
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B303)</f>
         <v>17</v>
       </c>
@@ -23579,7 +23817,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -27020,75 +27258,75 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F303">
-    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G303">
-    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H303">
-    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I303">
-    <cfRule type="cellIs" dxfId="199" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7 B9:B10 B12:B13 B15:B16 B18:B303">
-    <cfRule type="duplicateValues" dxfId="195" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="194" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="193" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="192" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="191" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27186,7 +27424,7 @@
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B300)</f>
         <v>1</v>
       </c>
@@ -27216,7 +27454,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -30794,77 +31032,77 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="190" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="186" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I300">
-    <cfRule type="cellIs" dxfId="178" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="174" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="170" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30904,16 +31142,16 @@
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
-      <c r="I1" s="125" t="str">
+      <c r="I1" s="127" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="122" t="str">
+      <c r="J1" s="127"/>
+      <c r="K1" s="124" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="L1" s="123"/>
+      <c r="L1" s="125"/>
     </row>
     <row r="2" spans="1:1019" ht="18" customHeight="1">
       <c r="A2" s="22"/>
@@ -30924,16 +31162,16 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="125" t="str">
+      <c r="I2" s="127" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="122" t="str">
+      <c r="J2" s="127"/>
+      <c r="K2" s="124" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="L2" s="123"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:1019" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -30976,7 +31214,7 @@
     </row>
     <row r="4" spans="1:1019" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B300)</f>
         <v>42</v>
       </c>
@@ -31006,7 +31244,7 @@
     </row>
     <row r="5" spans="1:1019" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -35727,21 +35965,21 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:I300">
-    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="165" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35782,16 +36020,16 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
-      <c r="J1" s="125" t="str">
+      <c r="J1" s="127" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="122" t="str">
+      <c r="K1" s="127"/>
+      <c r="L1" s="124" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="M1" s="123"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="43"/>
@@ -35803,16 +36041,16 @@
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
-      <c r="J2" s="125" t="str">
+      <c r="J2" s="127" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="122" t="str">
+      <c r="K2" s="127"/>
+      <c r="L2" s="124" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="M2" s="123"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -35857,7 +36095,7 @@
     </row>
     <row r="4" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B300)</f>
         <v>18</v>
       </c>
@@ -35890,7 +36128,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -40600,157 +40838,157 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="164" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="160" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="156" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J15:J300">
-    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B300">
-    <cfRule type="duplicateValues" dxfId="144" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="143" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="142" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="141" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="140" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="47" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="48" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="49" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="50" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J14">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40794,16 +41032,16 @@
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="43"/>
-      <c r="K1" s="125" t="str">
+      <c r="K1" s="127" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="L1" s="125"/>
-      <c r="M1" s="122" t="str">
+      <c r="L1" s="127"/>
+      <c r="M1" s="124" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="N1" s="123"/>
+      <c r="N1" s="125"/>
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
     </row>
@@ -40818,16 +41056,16 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
-      <c r="K2" s="125" t="str">
+      <c r="K2" s="127" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="122" t="str">
+      <c r="L2" s="127"/>
+      <c r="M2" s="124" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="N2" s="123"/>
+      <c r="N2" s="125"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
     </row>
@@ -40871,15 +41109,15 @@
       <c r="M3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="126" t="s">
+      <c r="N3" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
     </row>
     <row r="4" spans="1:16" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B299)</f>
         <v>12</v>
       </c>
@@ -40915,7 +41153,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -46421,21 +46659,21 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:J299">
-    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B299">
-    <cfRule type="duplicateValues" dxfId="115" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="273"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -46477,16 +46715,16 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
-      <c r="J1" s="125" t="str">
+      <c r="J1" s="127" t="str">
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="K1" s="125"/>
-      <c r="L1" s="122" t="str">
+      <c r="K1" s="127"/>
+      <c r="L1" s="124" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="M1" s="123"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="43"/>
@@ -46498,16 +46736,16 @@
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
-      <c r="J2" s="125" t="str">
+      <c r="J2" s="127" t="str">
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="122" t="str">
+      <c r="K2" s="127"/>
+      <c r="L2" s="124" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="M2" s="123"/>
+      <c r="M2" s="125"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="40" t="s">
@@ -46552,7 +46790,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="124">
+      <c r="B4" s="126">
         <f>COUNTA(B6:B300)</f>
         <v>7</v>
       </c>
@@ -46582,7 +46820,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -51153,134 +51391,134 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I11:I300">
-    <cfRule type="cellIs" dxfId="102" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 B13:B300">
-    <cfRule type="duplicateValues" dxfId="98" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="97" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="96" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="95" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="94" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="93" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="33" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="34" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="81" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/example_td.xlsx
+++ b/example_td.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustav\Documents\GitHub\automation-boilerplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Generator\automation-boilerplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63FA35-4DD0-41AB-B1F1-924C8ECBBC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A8DCC-A8C2-4E94-9E08-F3DD73D365F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="395">
   <si>
     <t>Sheet</t>
   </si>
@@ -1500,16 +1500,19 @@
     <t>ASI Addr</t>
   </si>
   <si>
-    <t>AS100</t>
+    <t>AS100~Master1</t>
   </si>
   <si>
-    <t>AS200</t>
+    <t>AS200~Master1</t>
   </si>
   <si>
-    <t>AS300</t>
+    <t>AS300~Master1</t>
   </si>
   <si>
-    <t>AS400</t>
+    <t>AS100_Master1_Error</t>
+  </si>
+  <si>
+    <t>AS100 ASi Master Error</t>
   </si>
 </sst>
 </file>
@@ -2687,14 +2690,14 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2745,16 +2748,383 @@
     <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent 2 2" xfId="9" xr:uid="{EF7A7829-79FD-4611-956F-3356E04BECF0}"/>
   </cellStyles>
-  <dxfs count="254">
+  <dxfs count="262">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Trade gothic"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F8F8"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Trade gothic"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F8F8"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4839,6 +5209,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -4923,309 +5303,6 @@
       <font>
         <color rgb="FF000000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Trade gothic"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F8F8"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Trade gothic"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F8F8"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5842,33 +5919,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="253" headerRowBorderDxfId="252" tableBorderDxfId="251" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2">
   <autoFilter ref="B3:C14" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="250"/>
-    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="249"/>
+    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F7" totalsRowShown="0" headerRowDxfId="248" dataDxfId="246" headerRowBorderDxfId="247" tableBorderDxfId="245" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" headerRowCellStyle="Normal 2">
   <autoFilter ref="E3:F7" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="244"/>
-    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="243"/>
+    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="242" tableBorderDxfId="241">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="H3:I7" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="240"/>
-    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="239"/>
+    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6464,52 +6541,52 @@
     <mergeCell ref="B32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="D6 D8:D9 F10 B4:F5 B11:F11 D12:F12">
-    <cfRule type="cellIs" dxfId="238" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="8" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10 B12">
-    <cfRule type="cellIs" dxfId="237" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="260" priority="14" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C10 C12">
-    <cfRule type="cellIs" dxfId="236" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="259" priority="15" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="235" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="258" priority="17" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="cellIs" dxfId="234" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="257" priority="18" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="233" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="256" priority="6" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="232" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="255" priority="4" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="231" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="254" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="230" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="2" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="229" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6558,11 +6635,11 @@
         <v>Projectnumber:</v>
       </c>
       <c r="P1" s="127"/>
-      <c r="Q1" s="124" t="str">
+      <c r="Q1" s="125" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="R1" s="125"/>
+      <c r="R1" s="126"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1">
       <c r="A2" s="46"/>
@@ -6584,11 +6661,11 @@
         <v>Projectname:</v>
       </c>
       <c r="P2" s="127"/>
-      <c r="Q2" s="124" t="str">
+      <c r="Q2" s="125" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="R2" s="125"/>
+      <c r="R2" s="126"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="129"/>
@@ -6957,184 +7034,184 @@
     <mergeCell ref="R3:R4"/>
   </mergeCells>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="62" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="201" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="202" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="203" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="204" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="58" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="213" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="214" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="215" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="216" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F6">
-    <cfRule type="cellIs" dxfId="54" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="209" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="210" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="211" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="212" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="50" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="205" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="206" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="207" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="208" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="46" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="189" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="190" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="191" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="192" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="42" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="197" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="198" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="199" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="200" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R16">
-    <cfRule type="cellIs" dxfId="38" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="193" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="194" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="195" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="196" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F9">
-    <cfRule type="cellIs" dxfId="34" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="185" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="186" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="187" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="188" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:L9">
-    <cfRule type="cellIs" dxfId="30" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="181" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="182" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="183" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="184" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11">
-    <cfRule type="cellIs" dxfId="26" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="177" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="178" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="179" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="180" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F16">
-    <cfRule type="cellIs" dxfId="22" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="173" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="174" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="175" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="176" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:L16">
-    <cfRule type="cellIs" dxfId="18" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="169" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="170" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="171" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="172" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:Q9 N11:Q16">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7153,7 +7230,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7236,9 +7313,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="126">
+      <c r="A4" s="124">
         <f>COUNTA(A6:A296)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="107"/>
       <c r="C4" s="25"/>
@@ -7262,7 +7339,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="108"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -7533,18 +7610,28 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33"/>
+      <c r="A16" s="33" t="s">
+        <v>393</v>
+      </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>342</v>
+      </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="74" t="str">
+      <c r="J16" s="74">
         <f>IF(ISBLANK(F16),"",VLOOKUP(F16,alarm_configs_table[],2,))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11753,44 +11840,44 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:I296">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J296">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="between">
       <formula>750</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="between">
       <formula>500</formula>
       <formula>749</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="between">
       <formula>250</formula>
       <formula>499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A296">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>NOT(ISERROR(SEARCH(" ",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B296">
-    <cfRule type="duplicateValues" dxfId="1" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="278"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F296" xr:uid="{7E766BAA-3222-4A1B-96F6-6DD936D34E56}">
@@ -12022,8 +12109,8 @@
   <dimension ref="A1:ALI282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12037,7 +12124,7 @@
     <col min="7" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="21" customWidth="1"/>
     <col min="15" max="994" width="9.140625" style="21"/>
   </cols>
   <sheetData>
@@ -12057,11 +12144,11 @@
         <f>proj_nr_descr</f>
         <v>Projectnumber:</v>
       </c>
-      <c r="M1" s="124" t="str">
+      <c r="M1" s="125" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="N1" s="125"/>
+      <c r="N1" s="126"/>
     </row>
     <row r="2" spans="1:997" ht="18" customHeight="1">
       <c r="A2" s="42"/>
@@ -12079,11 +12166,11 @@
         <f>proj_name_descr</f>
         <v>Projectname:</v>
       </c>
-      <c r="M2" s="124" t="str">
+      <c r="M2" s="125" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="N2" s="125"/>
+      <c r="N2" s="126"/>
     </row>
     <row r="3" spans="1:997" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -12134,7 +12221,7 @@
     </row>
     <row r="4" spans="1:997" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B282)</f>
         <v>57</v>
       </c>
@@ -12171,7 +12258,7 @@
     </row>
     <row r="5" spans="1:997" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -12524,10 +12611,10 @@
         <v>57</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:997">
@@ -12557,10 +12644,10 @@
         <v>57</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -12590,10 +12677,10 @@
         <v>57</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -12623,10 +12710,10 @@
         <v>57</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -12656,10 +12743,10 @@
         <v>57</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -12688,8 +12775,12 @@
         <f>IF(ISBLANK(F20),"",VLOOKUP(F20,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
+      <c r="M20" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="35"/>
@@ -12717,8 +12808,12 @@
         <f>IF(ISBLANK(F21),"",VLOOKUP(F21,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
+      <c r="M21" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="35"/>
@@ -12746,8 +12841,12 @@
         <f>IF(ISBLANK(F22),"",VLOOKUP(F22,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="M22" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="35"/>
@@ -12775,8 +12874,12 @@
         <f>IF(ISBLANK(F23),"",VLOOKUP(F23,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
+      <c r="M23" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="35"/>
@@ -12804,8 +12907,12 @@
         <f>IF(ISBLANK(F24),"",VLOOKUP(F24,valve_configs_table[],2,))</f>
         <v>57</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
+      <c r="M24" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="35"/>
@@ -12833,8 +12940,12 @@
         <f>IF(ISBLANK(F25),"",VLOOKUP(F25,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
+      <c r="M25" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="N25" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="35"/>
@@ -12862,8 +12973,12 @@
         <f>IF(ISBLANK(F26),"",VLOOKUP(F26,valve_configs_table[],2,))</f>
         <v>63</v>
       </c>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
+      <c r="M26" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="35"/>
@@ -18238,30 +18353,30 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K282 M6:N282">
-    <cfRule type="cellIs" dxfId="228" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="224" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="duplicateValues" dxfId="223" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="222" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B282 B7:B8 B14:B50">
-    <cfRule type="duplicateValues" dxfId="0" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="287"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F62 F282" xr:uid="{CD348D37-DD25-4857-B38F-E4611E7771B6}">
@@ -18382,7 +18497,7 @@
     </row>
     <row r="4" spans="1:1009" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B300)</f>
         <v>14</v>
       </c>
@@ -18415,7 +18530,7 @@
     </row>
     <row r="5" spans="1:1009" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -23602,86 +23717,86 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="221" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="217" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="209" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K300">
-    <cfRule type="cellIs" dxfId="205" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8 B11:B14 B20:B300">
-    <cfRule type="duplicateValues" dxfId="201" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="200" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="199" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="198" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="33"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{858AD274-EE67-43BB-A3F1-3780D7923764}">
@@ -23791,7 +23906,7 @@
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B303)</f>
         <v>17</v>
       </c>
@@ -23817,7 +23932,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -27258,75 +27373,75 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F303">
-    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G303">
-    <cfRule type="cellIs" dxfId="193" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H303">
-    <cfRule type="cellIs" dxfId="189" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I303">
-    <cfRule type="cellIs" dxfId="185" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7 B9:B10 B12:B13 B15:B16 B18:B303">
-    <cfRule type="duplicateValues" dxfId="181" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="180" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="179" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="178" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="177" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27424,7 +27539,7 @@
     </row>
     <row r="4" spans="1:10" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B300)</f>
         <v>1</v>
       </c>
@@ -27454,7 +27569,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -31032,77 +31147,77 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="176" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="172" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="168" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I300">
-    <cfRule type="cellIs" dxfId="164" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="160" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="156" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31147,11 +31262,11 @@
         <v>Projectnumber:</v>
       </c>
       <c r="J1" s="127"/>
-      <c r="K1" s="124" t="str">
+      <c r="K1" s="125" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="L1" s="125"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:1019" ht="18" customHeight="1">
       <c r="A2" s="22"/>
@@ -31167,11 +31282,11 @@
         <v>Projectname:</v>
       </c>
       <c r="J2" s="127"/>
-      <c r="K2" s="124" t="str">
+      <c r="K2" s="125" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="L2" s="125"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:1019" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -31214,7 +31329,7 @@
     </row>
     <row r="4" spans="1:1019" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B300)</f>
         <v>42</v>
       </c>
@@ -31244,7 +31359,7 @@
     </row>
     <row r="5" spans="1:1019" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -35965,21 +36080,21 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:I300">
-    <cfRule type="cellIs" dxfId="155" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="151" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -36025,11 +36140,11 @@
         <v>Projectnumber:</v>
       </c>
       <c r="K1" s="127"/>
-      <c r="L1" s="124" t="str">
+      <c r="L1" s="125" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="M1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="43"/>
@@ -36046,11 +36161,11 @@
         <v>Projectname:</v>
       </c>
       <c r="K2" s="127"/>
-      <c r="L2" s="124" t="str">
+      <c r="L2" s="125" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="M2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="23" t="s">
@@ -36095,7 +36210,7 @@
     </row>
     <row r="4" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B300)</f>
         <v>18</v>
       </c>
@@ -36128,7 +36243,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -40838,157 +40953,157 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="146" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="142" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="138" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J15:J300">
-    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B300">
-    <cfRule type="duplicateValues" dxfId="130" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="129" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="128" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="127" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="126" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="121" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="117" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="113" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="48" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="49" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J14">
-    <cfRule type="cellIs" dxfId="109" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41037,11 +41152,11 @@
         <v>Projectnumber:</v>
       </c>
       <c r="L1" s="127"/>
-      <c r="M1" s="124" t="str">
+      <c r="M1" s="125" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="N1" s="125"/>
+      <c r="N1" s="126"/>
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
     </row>
@@ -41061,11 +41176,11 @@
         <v>Projectname:</v>
       </c>
       <c r="L2" s="127"/>
-      <c r="M2" s="124" t="str">
+      <c r="M2" s="125" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="N2" s="125"/>
+      <c r="N2" s="126"/>
       <c r="O2" s="43"/>
       <c r="P2" s="43"/>
     </row>
@@ -41117,7 +41232,7 @@
     </row>
     <row r="4" spans="1:16" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B299)</f>
         <v>12</v>
       </c>
@@ -41153,7 +41268,7 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -46659,21 +46774,21 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:J299">
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B299">
-    <cfRule type="duplicateValues" dxfId="101" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="273"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -46720,11 +46835,11 @@
         <v>Projectnumber:</v>
       </c>
       <c r="K1" s="127"/>
-      <c r="L1" s="124" t="str">
+      <c r="L1" s="125" t="str">
         <f>proj_nr</f>
         <v>[Enter proj nr]</v>
       </c>
-      <c r="M1" s="125"/>
+      <c r="M1" s="126"/>
     </row>
     <row r="2" spans="1:13" s="24" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="43"/>
@@ -46741,11 +46856,11 @@
         <v>Projectname:</v>
       </c>
       <c r="K2" s="127"/>
-      <c r="L2" s="124" t="str">
+      <c r="L2" s="125" t="str">
         <f>proj_name</f>
         <v>[Enter proj name]</v>
       </c>
-      <c r="M2" s="125"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="40" t="s">
@@ -46790,7 +46905,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
       <c r="A4" s="25"/>
-      <c r="B4" s="126">
+      <c r="B4" s="124">
         <f>COUNTA(B6:B300)</f>
         <v>7</v>
       </c>
@@ -46820,7 +46935,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="29"/>
-      <c r="B5" s="126"/>
+      <c r="B5" s="124"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
@@ -51391,134 +51506,134 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="92" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I11:I300">
-    <cfRule type="cellIs" dxfId="88" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 B13:B300">
-    <cfRule type="duplicateValues" dxfId="84" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="83" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="82" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="81" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="80" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="33" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="34" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="75" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="71" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="67" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/example_td.xlsx
+++ b/example_td.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Generator\automation-boilerplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272A8DCC-A8C2-4E94-9E08-F3DD73D365F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8EAE2D-386E-484C-B4A7-5A6CFDE40C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B894503C-AA65-4B2C-BD25-60E31CA889FC}"/>
   </bookViews>
@@ -2748,81 +2748,7 @@
     <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent 2 2" xfId="9" xr:uid="{EF7A7829-79FD-4611-956F-3356E04BECF0}"/>
   </cellStyles>
-  <dxfs count="262">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="254">
     <dxf>
       <font>
         <b val="0"/>
@@ -5919,33 +5845,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}" name="valve_configs_table" displayName="valve_configs_table" ref="B3:C14" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Normal 2">
   <autoFilter ref="B3:C14" xr:uid="{FE4667D9-ACA3-4782-A460-2796D1278DB5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D2B99697-6C22-4A65-9A1B-E36D1780E905}" name="Description" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0C7255C4-22B6-457A-870A-411B65308579}" name="Value" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}" name="motor_configs_table" displayName="motor_configs_table" ref="E3:F7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" headerRowCellStyle="Normal 2">
   <autoFilter ref="E3:F7" xr:uid="{CBF749F0-70C7-416D-BC61-9BB1660F2FE0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3566CC7F-11CE-4C21-9EB5-FA275F790C03}" name="Description" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7BD42503-42BD-4F3C-A5DC-32DAB0E6CD55}" name="Value" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}" name="alarm_configs_table" displayName="alarm_configs_table" ref="H3:I7" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="H3:I7" xr:uid="{CFAD691F-B503-4ED4-8D8B-83FE92D1647F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{708D6350-80FE-46FF-B9B2-EC74246F1C57}" name="Description" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{94C6C4A0-B062-49D6-9CCC-0CD2BD3F95A4}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6541,52 +6467,52 @@
     <mergeCell ref="B32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="D6 D8:D9 F10 B4:F5 B11:F11 D12:F12">
-    <cfRule type="cellIs" dxfId="261" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="8" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B10 B12">
-    <cfRule type="cellIs" dxfId="260" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="252" priority="14" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C10 C12">
-    <cfRule type="cellIs" dxfId="259" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="251" priority="15" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="cellIs" dxfId="258" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="17" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F9">
-    <cfRule type="cellIs" dxfId="257" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="249" priority="18" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="256" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="6" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="255" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="247" priority="4" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="254" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="246" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="253" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="245" priority="2" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="252" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="1" operator="greaterThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7034,184 +6960,184 @@
     <mergeCell ref="R3:R4"/>
   </mergeCells>
   <conditionalFormatting sqref="R8:R9">
-    <cfRule type="cellIs" dxfId="84" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="201" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="202" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="203" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="204" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="80" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="213" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="214" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="215" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="216" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:F6">
-    <cfRule type="cellIs" dxfId="76" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="209" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="210" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="211" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="212" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="72" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="205" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="206" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="207" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="208" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R16">
-    <cfRule type="cellIs" dxfId="68" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="189" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="190" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="191" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="192" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="cellIs" dxfId="64" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="197" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="198" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="199" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="200" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R16">
-    <cfRule type="cellIs" dxfId="60" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="193" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="194" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="195" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="196" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:F9">
-    <cfRule type="cellIs" dxfId="56" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="185" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="186" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="187" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="188" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:L9">
-    <cfRule type="cellIs" dxfId="52" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="181" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="182" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="183" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="184" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:F11">
-    <cfRule type="cellIs" dxfId="48" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="177" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="178" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="179" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="180" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:F16">
-    <cfRule type="cellIs" dxfId="44" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="173" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="174" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="175" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="176" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:L16">
-    <cfRule type="cellIs" dxfId="40" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="169" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="170" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="171" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="172" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:Q9 N11:Q16">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11840,44 +11766,44 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:I296">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J296">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="between">
       <formula>750</formula>
       <formula>999</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="between">
       <formula>500</formula>
       <formula>749</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="between">
       <formula>250</formula>
       <formula>499</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="between">
       <formula>1</formula>
       <formula>249</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A296">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>NOT(ISERROR(SEARCH(" ",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B296">
-    <cfRule type="duplicateValues" dxfId="23" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="278"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F296" xr:uid="{7E766BAA-3222-4A1B-96F6-6DD936D34E56}">
@@ -12109,8 +12035,8 @@
   <dimension ref="A1:ALI282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -12124,7 +12050,7 @@
     <col min="7" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="994" width="9.140625" style="21"/>
   </cols>
   <sheetData>
@@ -18353,30 +18279,30 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K282 M6:N282">
-    <cfRule type="cellIs" dxfId="251" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="247" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="duplicateValues" dxfId="246" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="245" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B282 B7:B8 B14:B50">
-    <cfRule type="duplicateValues" dxfId="244" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="287"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F62 F282" xr:uid="{CD348D37-DD25-4857-B38F-E4611E7771B6}">
@@ -23717,86 +23643,86 @@
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="243" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="239" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="235" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="231" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K300">
-    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8 B11:B14 B20:B300">
-    <cfRule type="duplicateValues" dxfId="223" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="222" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="221" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="220" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="33"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19" xr:uid="{858AD274-EE67-43BB-A3F1-3780D7923764}">
@@ -27373,75 +27299,75 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F303">
-    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G303">
-    <cfRule type="cellIs" dxfId="215" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H303">
-    <cfRule type="cellIs" dxfId="211" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I303">
-    <cfRule type="cellIs" dxfId="207" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B7 B9:B10 B12:B13 B15:B16 B18:B303">
-    <cfRule type="duplicateValues" dxfId="203" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="202" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="201" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="200" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="199" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31147,77 +31073,77 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="198" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="194" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="190" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I300">
-    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J300">
-    <cfRule type="cellIs" dxfId="182" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="178" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -36080,21 +36006,21 @@
     <mergeCell ref="I2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:I300">
-    <cfRule type="cellIs" dxfId="177" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B300">
-    <cfRule type="duplicateValues" dxfId="173" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -40953,157 +40879,157 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="172" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="168" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="11" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="13" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="164" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="15" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="17" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I300">
-    <cfRule type="cellIs" dxfId="160" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 J15:J300">
-    <cfRule type="cellIs" dxfId="156" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B300">
-    <cfRule type="duplicateValues" dxfId="152" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="151" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="150" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="149" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="148" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="143" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="139" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="47" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="48" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="49" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="50" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J14">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46774,21 +46700,21 @@
     <mergeCell ref="M2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:J299">
-    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B299">
-    <cfRule type="duplicateValues" dxfId="123" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="273"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -51506,134 +51432,134 @@
     <mergeCell ref="L2:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F300">
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G300">
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H300">
-    <cfRule type="cellIs" dxfId="114" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="21" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I11:I300">
-    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="23" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="25" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11 B13:B300">
-    <cfRule type="duplicateValues" dxfId="106" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B8">
-    <cfRule type="duplicateValues" dxfId="105" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="104" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="103" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="102" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="101" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="32" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="97" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="43" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
       <formula>"p"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="45" operator="equal">
       <formula>"x"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
